--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_64ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_64ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4627,28 +4627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9953.464122016434</v>
+        <v>10281.27607568109</v>
       </c>
       <c r="AB2" t="n">
-        <v>13618.76872758949</v>
+        <v>14067.29550463621</v>
       </c>
       <c r="AC2" t="n">
-        <v>12319.01255428979</v>
+        <v>12724.73256524644</v>
       </c>
       <c r="AD2" t="n">
-        <v>9953464.122016434</v>
+        <v>10281276.07568109</v>
       </c>
       <c r="AE2" t="n">
-        <v>13618768.72758949</v>
+        <v>14067295.50463621</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.184665626106718e-07</v>
+        <v>6.032883518562315e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>73</v>
+        <v>72.626953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>12319012.55428979</v>
+        <v>12724732.56524644</v>
       </c>
     </row>
     <row r="3">
@@ -4733,28 +4733,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4665.509121555371</v>
+        <v>4872.539266937832</v>
       </c>
       <c r="AB3" t="n">
-        <v>6383.555407848274</v>
+        <v>6666.823186285976</v>
       </c>
       <c r="AC3" t="n">
-        <v>5774.317839099279</v>
+        <v>6030.5509383317</v>
       </c>
       <c r="AD3" t="n">
-        <v>4665509.121555371</v>
+        <v>4872539.266937831</v>
       </c>
       <c r="AE3" t="n">
-        <v>6383555.407848273</v>
+        <v>6666823.186285975</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.635524008197334e-07</v>
+        <v>9.566198832311999e-07</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.80729166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>5774317.839099279</v>
+        <v>6030550.9383317</v>
       </c>
     </row>
     <row r="4">
@@ -4839,28 +4839,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3776.890300135631</v>
+        <v>3949.472404699281</v>
       </c>
       <c r="AB4" t="n">
-        <v>5167.707933286131</v>
+        <v>5403.842382535228</v>
       </c>
       <c r="AC4" t="n">
-        <v>4674.509141056745</v>
+        <v>4888.10724988628</v>
       </c>
       <c r="AD4" t="n">
-        <v>3776890.300135631</v>
+        <v>3949472.40469928</v>
       </c>
       <c r="AE4" t="n">
-        <v>5167707.933286131</v>
+        <v>5403842.382535229</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.57665362692013e-07</v>
+        <v>1.092299191279188e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>41</v>
+        <v>40.11067708333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>4674509.141056744</v>
+        <v>4888107.24988628</v>
       </c>
     </row>
     <row r="5">
@@ -4945,28 +4945,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3389.093593802284</v>
+        <v>3553.127581916471</v>
       </c>
       <c r="AB5" t="n">
-        <v>4637.10737129758</v>
+        <v>4861.545910504242</v>
       </c>
       <c r="AC5" t="n">
-        <v>4194.548352001835</v>
+        <v>4397.566792028071</v>
       </c>
       <c r="AD5" t="n">
-        <v>3389093.593802284</v>
+        <v>3553127.581916471</v>
       </c>
       <c r="AE5" t="n">
-        <v>4637107.37129758</v>
+        <v>4861545.910504241</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.084564849722909e-07</v>
+        <v>1.165522944828895e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>38</v>
+        <v>37.59114583333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>4194548.352001836</v>
+        <v>4397566.792028071</v>
       </c>
     </row>
     <row r="6">
@@ -5051,28 +5051,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3170.368854002543</v>
+        <v>3325.684222975225</v>
       </c>
       <c r="AB6" t="n">
-        <v>4337.838532849062</v>
+        <v>4550.347872707986</v>
       </c>
       <c r="AC6" t="n">
-        <v>3923.841311468403</v>
+        <v>4116.069058189913</v>
       </c>
       <c r="AD6" t="n">
-        <v>3170368.854002543</v>
+        <v>3325684.222975225</v>
       </c>
       <c r="AE6" t="n">
-        <v>4337838.532849062</v>
+        <v>4550347.872707986</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.404810344982748e-07</v>
+        <v>1.211691598261891e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>37</v>
+        <v>36.15885416666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>3923841.311468403</v>
+        <v>4116069.058189914</v>
       </c>
     </row>
     <row r="7">
@@ -5157,28 +5157,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3026.918855508407</v>
+        <v>3182.148883626518</v>
       </c>
       <c r="AB7" t="n">
-        <v>4141.563916342088</v>
+        <v>4353.956489078814</v>
       </c>
       <c r="AC7" t="n">
-        <v>3746.298868887707</v>
+        <v>3938.420992577279</v>
       </c>
       <c r="AD7" t="n">
-        <v>3026918.855508407</v>
+        <v>3182148.883626517</v>
       </c>
       <c r="AE7" t="n">
-        <v>4141563.916342088</v>
+        <v>4353956.489078814</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.614883920590515e-07</v>
+        <v>1.241977158094031e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>36</v>
+        <v>35.27994791666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>3746298.868887707</v>
+        <v>3938420.992577279</v>
       </c>
     </row>
     <row r="8">
@@ -5263,28 +5263,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2909.436050022886</v>
+        <v>3064.751329487018</v>
       </c>
       <c r="AB8" t="n">
-        <v>3980.818758901209</v>
+        <v>4193.327976290582</v>
       </c>
       <c r="AC8" t="n">
-        <v>3600.895003665745</v>
+        <v>3793.12263960603</v>
       </c>
       <c r="AD8" t="n">
-        <v>2909436.050022886</v>
+        <v>3064751.329487018</v>
       </c>
       <c r="AE8" t="n">
-        <v>3980818.758901209</v>
+        <v>4193327.976290583</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.777340819060523e-07</v>
+        <v>1.265397991030887e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>35</v>
+        <v>34.62565104166666</v>
       </c>
       <c r="AH8" t="n">
-        <v>3600895.003665745</v>
+        <v>3793122.63960603</v>
       </c>
     </row>
     <row r="9">
@@ -5369,28 +5369,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2824.846467135545</v>
+        <v>2971.528468312743</v>
       </c>
       <c r="AB9" t="n">
-        <v>3865.079559765722</v>
+        <v>4065.776344929559</v>
       </c>
       <c r="AC9" t="n">
-        <v>3496.201791254769</v>
+        <v>3677.744356922267</v>
       </c>
       <c r="AD9" t="n">
-        <v>2824846.467135545</v>
+        <v>2971528.468312744</v>
       </c>
       <c r="AE9" t="n">
-        <v>3865079.559765723</v>
+        <v>4065776.344929559</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.899650323081045e-07</v>
+        <v>1.283030916977599e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>35</v>
+        <v>34.150390625</v>
       </c>
       <c r="AH9" t="n">
-        <v>3496201.791254769</v>
+        <v>3677744.356922267</v>
       </c>
     </row>
     <row r="10">
@@ -5475,28 +5475,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2746.330398068093</v>
+        <v>2901.560336677653</v>
       </c>
       <c r="AB10" t="n">
-        <v>3757.65041018313</v>
+        <v>3970.042860450308</v>
       </c>
       <c r="AC10" t="n">
-        <v>3399.025528930585</v>
+        <v>3591.14754183893</v>
       </c>
       <c r="AD10" t="n">
-        <v>2746330.398068093</v>
+        <v>2901560.336677653</v>
       </c>
       <c r="AE10" t="n">
-        <v>3757650.41018313</v>
+        <v>3970042.860450308</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.991149036012427e-07</v>
+        <v>1.296221960815598e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>34</v>
+        <v>33.80533854166666</v>
       </c>
       <c r="AH10" t="n">
-        <v>3399025.528930584</v>
+        <v>3591147.54183893</v>
       </c>
     </row>
     <row r="11">
@@ -5581,28 +5581,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2678.049037147664</v>
+        <v>2824.816289670884</v>
       </c>
       <c r="AB11" t="n">
-        <v>3664.224839810753</v>
+        <v>3865.038269627238</v>
       </c>
       <c r="AC11" t="n">
-        <v>3314.516363870938</v>
+        <v>3496.16444178915</v>
       </c>
       <c r="AD11" t="n">
-        <v>2678049.037147664</v>
+        <v>2824816.289670884</v>
       </c>
       <c r="AE11" t="n">
-        <v>3664224.839810753</v>
+        <v>3865038.269627238</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.069576504239328e-07</v>
+        <v>1.307528569819597e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>34</v>
+        <v>33.50911458333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>3314516.363870938</v>
+        <v>3496164.44178915</v>
       </c>
     </row>
     <row r="12">
@@ -5687,28 +5687,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2616.37883159855</v>
+        <v>2762.975491921178</v>
       </c>
       <c r="AB12" t="n">
-        <v>3579.844943880998</v>
+        <v>3780.424961922638</v>
       </c>
       <c r="AC12" t="n">
-        <v>3238.189566780796</v>
+        <v>3419.626509416356</v>
       </c>
       <c r="AD12" t="n">
-        <v>2616378.83159855</v>
+        <v>2762975.491921178</v>
       </c>
       <c r="AE12" t="n">
-        <v>3579844.943880999</v>
+        <v>3780424.961922638</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.140534689777951e-07</v>
+        <v>1.317758358918453e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>34</v>
+        <v>33.24869791666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>3238189.566780796</v>
+        <v>3419626.509416356</v>
       </c>
     </row>
     <row r="13">
@@ -5793,28 +5793,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2564.041131629503</v>
+        <v>2710.63779195213</v>
       </c>
       <c r="AB13" t="n">
-        <v>3508.23419380698</v>
+        <v>3708.814211848619</v>
       </c>
       <c r="AC13" t="n">
-        <v>3173.413246187525</v>
+        <v>3354.850188823085</v>
       </c>
       <c r="AD13" t="n">
-        <v>2564041.131629503</v>
+        <v>2710637.79195213</v>
       </c>
       <c r="AE13" t="n">
-        <v>3508234.19380698</v>
+        <v>3708814.211848619</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.184416725571573e-07</v>
+        <v>1.324084675861167e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>34</v>
+        <v>33.09244791666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>3173413.246187525</v>
+        <v>3354850.188823085</v>
       </c>
     </row>
     <row r="14">
@@ -5899,28 +5899,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2504.656810682814</v>
+        <v>2651.338722351462</v>
       </c>
       <c r="AB14" t="n">
-        <v>3426.981946036376</v>
+        <v>3627.678608730665</v>
       </c>
       <c r="AC14" t="n">
-        <v>3099.915598905905</v>
+        <v>3281.458053792178</v>
       </c>
       <c r="AD14" t="n">
-        <v>2504656.810682815</v>
+        <v>2651338.722351463</v>
       </c>
       <c r="AE14" t="n">
-        <v>3426981.946036377</v>
+        <v>3627678.608730665</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.235768044053472e-07</v>
+        <v>1.331487812709023e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>33</v>
+        <v>32.90690104166666</v>
       </c>
       <c r="AH14" t="n">
-        <v>3099915.598905906</v>
+        <v>3281458.053792178</v>
       </c>
     </row>
     <row r="15">
@@ -6005,28 +6005,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2463.228503201001</v>
+        <v>2609.91041486965</v>
       </c>
       <c r="AB15" t="n">
-        <v>3370.297908051823</v>
+        <v>3570.994570746111</v>
       </c>
       <c r="AC15" t="n">
-        <v>3048.641405950052</v>
+        <v>3230.183860836325</v>
       </c>
       <c r="AD15" t="n">
-        <v>2463228.503201001</v>
+        <v>2609910.41486965</v>
       </c>
       <c r="AE15" t="n">
-        <v>3370297.908051822</v>
+        <v>3570994.570746111</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.266578835142612e-07</v>
+        <v>1.335929694817737e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>33</v>
+        <v>32.79622395833334</v>
       </c>
       <c r="AH15" t="n">
-        <v>3048641.405950052</v>
+        <v>3230183.860836325</v>
       </c>
     </row>
     <row r="16">
@@ -6111,28 +6111,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2448.512535037709</v>
+        <v>2595.194446706357</v>
       </c>
       <c r="AB16" t="n">
-        <v>3350.162871188109</v>
+        <v>3550.859533882397</v>
       </c>
       <c r="AC16" t="n">
-        <v>3030.428028744911</v>
+        <v>3211.970483631184</v>
       </c>
       <c r="AD16" t="n">
-        <v>2448512.535037709</v>
+        <v>2595194.446706357</v>
       </c>
       <c r="AE16" t="n">
-        <v>3350162.871188109</v>
+        <v>3550859.533882397</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.27684909883899e-07</v>
+        <v>1.337410322187308e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>33</v>
+        <v>32.76041666666666</v>
       </c>
       <c r="AH16" t="n">
-        <v>3030428.028744911</v>
+        <v>3211970.483631184</v>
       </c>
     </row>
     <row r="17">
@@ -6217,28 +6217,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2450.73130291316</v>
+        <v>2597.413214581808</v>
       </c>
       <c r="AB17" t="n">
-        <v>3353.198687280432</v>
+        <v>3553.895349974719</v>
       </c>
       <c r="AC17" t="n">
-        <v>3033.174110810176</v>
+        <v>3214.716565696448</v>
       </c>
       <c r="AD17" t="n">
-        <v>2450731.30291316</v>
+        <v>2597413.214581809</v>
       </c>
       <c r="AE17" t="n">
-        <v>3353198.687280432</v>
+        <v>3553895.349974719</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.285252041863301e-07</v>
+        <v>1.338621744580594e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>33</v>
+        <v>32.734375</v>
       </c>
       <c r="AH17" t="n">
-        <v>3033174.110810176</v>
+        <v>3214716.565696449</v>
       </c>
     </row>
     <row r="18">
@@ -6323,28 +6323,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2461.21028798679</v>
+        <v>2607.892199655438</v>
       </c>
       <c r="AB18" t="n">
-        <v>3367.536496958367</v>
+        <v>3568.233159652655</v>
       </c>
       <c r="AC18" t="n">
-        <v>3046.143540055692</v>
+        <v>3227.685994941964</v>
       </c>
       <c r="AD18" t="n">
-        <v>2461210.28798679</v>
+        <v>2607892.199655438</v>
       </c>
       <c r="AE18" t="n">
-        <v>3367536.496958367</v>
+        <v>3568233.159652655</v>
       </c>
       <c r="AF18" t="n">
-        <v>9.285252041863301e-07</v>
+        <v>1.338621744580594e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>33</v>
+        <v>32.734375</v>
       </c>
       <c r="AH18" t="n">
-        <v>3046143.540055692</v>
+        <v>3227685.994941964</v>
       </c>
     </row>
   </sheetData>
@@ -6620,28 +6620,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6882.722567503099</v>
+        <v>7143.492105507601</v>
       </c>
       <c r="AB2" t="n">
-        <v>9417.244661147817</v>
+        <v>9774.041047385679</v>
       </c>
       <c r="AC2" t="n">
-        <v>8518.476047873408</v>
+        <v>8841.220287775588</v>
       </c>
       <c r="AD2" t="n">
-        <v>6882722.567503098</v>
+        <v>7143492.105507601</v>
       </c>
       <c r="AE2" t="n">
-        <v>9417244.661147818</v>
+        <v>9774041.04738568</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.137401653773928e-07</v>
+        <v>7.520962757454375e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>62</v>
+        <v>61.19791666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>8518476.047873408</v>
+        <v>8841220.287775587</v>
       </c>
     </row>
     <row r="3">
@@ -6726,28 +6726,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3745.919712332981</v>
+        <v>3930.847097487884</v>
       </c>
       <c r="AB3" t="n">
-        <v>5125.332608728639</v>
+        <v>5378.358415518031</v>
       </c>
       <c r="AC3" t="n">
-        <v>4636.178058000879</v>
+        <v>4865.055436914234</v>
       </c>
       <c r="AD3" t="n">
-        <v>3745919.712332981</v>
+        <v>3930847.097487884</v>
       </c>
       <c r="AE3" t="n">
-        <v>5125332.608728639</v>
+        <v>5378358.415518031</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.411998550678911e-07</v>
+        <v>1.085088704656982e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>43</v>
+        <v>42.41861979166666</v>
       </c>
       <c r="AH3" t="n">
-        <v>4636178.058000879</v>
+        <v>4865055.436914233</v>
       </c>
     </row>
     <row r="4">
@@ -6832,28 +6832,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3126.787870303021</v>
+        <v>3286.633666502058</v>
       </c>
       <c r="AB4" t="n">
-        <v>4278.209108294066</v>
+        <v>4496.917178552431</v>
       </c>
       <c r="AC4" t="n">
-        <v>3869.902835502514</v>
+        <v>4067.737714494117</v>
       </c>
       <c r="AD4" t="n">
-        <v>3126787.87030302</v>
+        <v>3286633.666502058</v>
       </c>
       <c r="AE4" t="n">
-        <v>4278209.108294066</v>
+        <v>4496917.178552431</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.259056503369215e-07</v>
+        <v>1.209094802387523e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>39</v>
+        <v>38.06640625</v>
       </c>
       <c r="AH4" t="n">
-        <v>3869902.835502514</v>
+        <v>4067737.714494117</v>
       </c>
     </row>
     <row r="5">
@@ -6938,28 +6938,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2842.539410525877</v>
+        <v>2993.967783169911</v>
       </c>
       <c r="AB5" t="n">
-        <v>3889.28782546995</v>
+        <v>4096.478805469841</v>
       </c>
       <c r="AC5" t="n">
-        <v>3518.099654056698</v>
+        <v>3705.516617719758</v>
       </c>
       <c r="AD5" t="n">
-        <v>2842539.410525877</v>
+        <v>2993967.783169911</v>
       </c>
       <c r="AE5" t="n">
-        <v>3889287.82546995</v>
+        <v>4096478.805469841</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.709146589975466e-07</v>
+        <v>1.274986297874903e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>37</v>
+        <v>36.10026041666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>3518099.654056698</v>
+        <v>3705516.617719758</v>
       </c>
     </row>
     <row r="6">
@@ -7044,28 +7044,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2661.06944177964</v>
+        <v>2812.497724915123</v>
       </c>
       <c r="AB6" t="n">
-        <v>3640.992608341342</v>
+        <v>3848.183465871684</v>
       </c>
       <c r="AC6" t="n">
-        <v>3293.501383966327</v>
+        <v>3480.918236848161</v>
       </c>
       <c r="AD6" t="n">
-        <v>2661069.441779641</v>
+        <v>2812497.724915124</v>
       </c>
       <c r="AE6" t="n">
-        <v>3640992.608341342</v>
+        <v>3848183.465871684</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.989245570910687e-07</v>
+        <v>1.315991734980783e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>35</v>
+        <v>34.97395833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>3293501.383966327</v>
+        <v>3480918.236848161</v>
       </c>
     </row>
     <row r="7">
@@ -7150,28 +7150,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2548.031091666247</v>
+        <v>2691.042040755278</v>
       </c>
       <c r="AB7" t="n">
-        <v>3486.328550816139</v>
+        <v>3682.002440557555</v>
       </c>
       <c r="AC7" t="n">
-        <v>3153.598247018967</v>
+        <v>3330.597295353484</v>
       </c>
       <c r="AD7" t="n">
-        <v>2548031.091666247</v>
+        <v>2691042.040755278</v>
       </c>
       <c r="AE7" t="n">
-        <v>3486328.550816139</v>
+        <v>3682002.440557555</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.170826979241106e-07</v>
+        <v>1.342574570070112e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>35</v>
+        <v>34.28385416666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>3153598.247018967</v>
+        <v>3330597.295353484</v>
       </c>
     </row>
     <row r="8">
@@ -7256,28 +7256,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2442.012619324266</v>
+        <v>2593.355561605177</v>
       </c>
       <c r="AB8" t="n">
-        <v>3341.269399752933</v>
+        <v>3548.343490161077</v>
       </c>
       <c r="AC8" t="n">
-        <v>3022.383337741442</v>
+        <v>3209.694567591337</v>
       </c>
       <c r="AD8" t="n">
-        <v>2442012.619324266</v>
+        <v>2593355.561605177</v>
       </c>
       <c r="AE8" t="n">
-        <v>3341269.399752933</v>
+        <v>3548343.490161077</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.315705762483462e-07</v>
+        <v>1.363784278917982e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>34</v>
+        <v>33.75325520833334</v>
       </c>
       <c r="AH8" t="n">
-        <v>3022383.337741442</v>
+        <v>3209694.567591337</v>
       </c>
     </row>
     <row r="9">
@@ -7362,28 +7362,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2356.203480631487</v>
+        <v>2499.129088865947</v>
       </c>
       <c r="AB9" t="n">
-        <v>3223.861550561444</v>
+        <v>3419.418673180662</v>
       </c>
       <c r="AC9" t="n">
-        <v>2916.180728893842</v>
+        <v>3093.074154196421</v>
       </c>
       <c r="AD9" t="n">
-        <v>2356203.480631487</v>
+        <v>2499129.088865947</v>
       </c>
       <c r="AE9" t="n">
-        <v>3223861.550561444</v>
+        <v>3419418.673180662</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.421950203527856e-07</v>
+        <v>1.379338065406419e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>34</v>
+        <v>33.369140625</v>
       </c>
       <c r="AH9" t="n">
-        <v>2916180.728893842</v>
+        <v>3093074.154196421</v>
       </c>
     </row>
     <row r="10">
@@ -7468,28 +7468,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2286.736488836094</v>
+        <v>2429.662097070554</v>
       </c>
       <c r="AB10" t="n">
-        <v>3128.813747719597</v>
+        <v>3324.370870338815</v>
       </c>
       <c r="AC10" t="n">
-        <v>2830.204154954795</v>
+        <v>3007.097580257374</v>
       </c>
       <c r="AD10" t="n">
-        <v>2286736.488836094</v>
+        <v>2429662.097070554</v>
       </c>
       <c r="AE10" t="n">
-        <v>3128813.747719597</v>
+        <v>3324370.870338815</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.498253029368831e-07</v>
+        <v>1.390508512066297e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>34</v>
+        <v>33.10221354166666</v>
       </c>
       <c r="AH10" t="n">
-        <v>2830204.154954795</v>
+        <v>3007097.580257374</v>
       </c>
     </row>
     <row r="11">
@@ -7574,28 +7574,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2215.577639816834</v>
+        <v>2358.588499397314</v>
       </c>
       <c r="AB11" t="n">
-        <v>3031.451071184581</v>
+        <v>3227.12483845645</v>
       </c>
       <c r="AC11" t="n">
-        <v>2742.133635618911</v>
+        <v>2919.132573172202</v>
       </c>
       <c r="AD11" t="n">
-        <v>2215577.639816834</v>
+        <v>2358588.499397314</v>
       </c>
       <c r="AE11" t="n">
-        <v>3031451.071184582</v>
+        <v>3227124.83845645</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.559102118330621e-07</v>
+        <v>1.399416589782402e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>33</v>
+        <v>32.890625</v>
       </c>
       <c r="AH11" t="n">
-        <v>2742133.635618911</v>
+        <v>2919132.573172202</v>
       </c>
     </row>
     <row r="12">
@@ -7680,28 +7680,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2208.962342164958</v>
+        <v>2351.973201745438</v>
       </c>
       <c r="AB12" t="n">
-        <v>3022.399729090951</v>
+        <v>3218.073496362818</v>
       </c>
       <c r="AC12" t="n">
-        <v>2733.946140911058</v>
+        <v>2910.945078464349</v>
       </c>
       <c r="AD12" t="n">
-        <v>2208962.342164958</v>
+        <v>2351973.201745438</v>
       </c>
       <c r="AE12" t="n">
-        <v>3022399.72909095</v>
+        <v>3218073.496362818</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.571658279544957e-07</v>
+        <v>1.401254764549217e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>33</v>
+        <v>32.84830729166666</v>
       </c>
       <c r="AH12" t="n">
-        <v>2733946.140911058</v>
+        <v>2910945.078464349</v>
       </c>
     </row>
     <row r="13">
@@ -7786,28 +7786,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2219.467911536237</v>
+        <v>2362.478771116717</v>
       </c>
       <c r="AB13" t="n">
-        <v>3036.773912577745</v>
+        <v>3232.447679849613</v>
       </c>
       <c r="AC13" t="n">
-        <v>2746.948472500165</v>
+        <v>2923.947410053456</v>
       </c>
       <c r="AD13" t="n">
-        <v>2219467.911536237</v>
+        <v>2362478.771116717</v>
       </c>
       <c r="AE13" t="n">
-        <v>3036773.912577745</v>
+        <v>3232447.679849613</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.570692420990007e-07</v>
+        <v>1.401113366490231e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>33</v>
+        <v>32.8515625</v>
       </c>
       <c r="AH13" t="n">
-        <v>2746948.472500165</v>
+        <v>2923947.410053456</v>
       </c>
     </row>
   </sheetData>
@@ -8083,28 +8083,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2695.744545939401</v>
+        <v>2866.539557238107</v>
       </c>
       <c r="AB2" t="n">
-        <v>3688.436615610359</v>
+        <v>3922.125885013371</v>
       </c>
       <c r="AC2" t="n">
-        <v>3336.417401769671</v>
+        <v>3547.803695285799</v>
       </c>
       <c r="AD2" t="n">
-        <v>2695744.545939401</v>
+        <v>2866539.557238107</v>
       </c>
       <c r="AE2" t="n">
-        <v>3688436.615610359</v>
+        <v>3922125.885013371</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.192034326634511e-07</v>
+        <v>1.267408826998093e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.82552083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3336417.401769671</v>
+        <v>3547803.695285799</v>
       </c>
     </row>
     <row r="3">
@@ -8189,28 +8189,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1916.957389082264</v>
+        <v>2064.365193323678</v>
       </c>
       <c r="AB3" t="n">
-        <v>2622.865669933695</v>
+        <v>2824.55553087015</v>
       </c>
       <c r="AC3" t="n">
-        <v>2372.543051610311</v>
+        <v>2554.983915292488</v>
       </c>
       <c r="AD3" t="n">
-        <v>1916957.389082264</v>
+        <v>2064365.193323678</v>
       </c>
       <c r="AE3" t="n">
-        <v>2622865.669933695</v>
+        <v>2824555.53087015</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.797892917173312e-07</v>
+        <v>1.515854972535148e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>35.80729166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2372543.051610311</v>
+        <v>2554983.915292488</v>
       </c>
     </row>
     <row r="4">
@@ -8295,28 +8295,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1682.570477835517</v>
+        <v>1814.529134971574</v>
       </c>
       <c r="AB4" t="n">
-        <v>2302.167157545162</v>
+        <v>2482.718813843799</v>
       </c>
       <c r="AC4" t="n">
-        <v>2082.45155514095</v>
+        <v>2245.771614768287</v>
       </c>
       <c r="AD4" t="n">
-        <v>1682570.477835517</v>
+        <v>1814529.134971574</v>
       </c>
       <c r="AE4" t="n">
-        <v>2302167.157545162</v>
+        <v>2482718.813843799</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.031629424740765e-06</v>
+        <v>1.596058057101137e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>35</v>
+        <v>34.00716145833334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2082451.55514095</v>
+        <v>2245771.614768287</v>
       </c>
     </row>
     <row r="5">
@@ -8401,28 +8401,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1667.922640308155</v>
+        <v>1807.563155815329</v>
       </c>
       <c r="AB5" t="n">
-        <v>2282.125340023241</v>
+        <v>2473.187653844915</v>
       </c>
       <c r="AC5" t="n">
-        <v>2064.322500554454</v>
+        <v>2237.150095302628</v>
       </c>
       <c r="AD5" t="n">
-        <v>1667922.640308155</v>
+        <v>1807563.155815329</v>
       </c>
       <c r="AE5" t="n">
-        <v>2282125.340023241</v>
+        <v>2473187.653844914</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.034862697070709e-06</v>
+        <v>1.601060328487789e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>34</v>
+        <v>33.89973958333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>2064322.500554454</v>
+        <v>2237150.095302628</v>
       </c>
     </row>
   </sheetData>
@@ -8698,28 +8698,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3835.627630765135</v>
+        <v>4035.908335503585</v>
       </c>
       <c r="AB2" t="n">
-        <v>5248.074940361564</v>
+        <v>5522.107836345825</v>
       </c>
       <c r="AC2" t="n">
-        <v>4747.206033772699</v>
+        <v>4995.085614771795</v>
       </c>
       <c r="AD2" t="n">
-        <v>3835627.630765134</v>
+        <v>4035908.335503585</v>
       </c>
       <c r="AE2" t="n">
-        <v>5248074.940361564</v>
+        <v>5522107.836345824</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.965816674996404e-07</v>
+        <v>1.052739672617687e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.18359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>4747206.033772699</v>
+        <v>4995085.614771795</v>
       </c>
     </row>
     <row r="3">
@@ -8804,28 +8804,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2520.463401952657</v>
+        <v>2680.722030478406</v>
       </c>
       <c r="AB3" t="n">
-        <v>3448.609221549367</v>
+        <v>3667.882147210017</v>
       </c>
       <c r="AC3" t="n">
-        <v>3119.478797598007</v>
+        <v>3317.824622985079</v>
       </c>
       <c r="AD3" t="n">
-        <v>2520463.401952657</v>
+        <v>2680722.030478406</v>
       </c>
       <c r="AE3" t="n">
-        <v>3448609.221549367</v>
+        <v>3667882.147210017</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.848525563176307e-07</v>
+        <v>1.337272331321046e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>38</v>
+        <v>37.9296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>3119478.797598007</v>
+        <v>3317824.622985079</v>
       </c>
     </row>
     <row r="4">
@@ -8910,28 +8910,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2184.866821889032</v>
+        <v>2329.082608899845</v>
       </c>
       <c r="AB4" t="n">
-        <v>2989.431175229924</v>
+        <v>3186.753577369792</v>
       </c>
       <c r="AC4" t="n">
-        <v>2704.124059558985</v>
+        <v>2882.614288582236</v>
       </c>
       <c r="AD4" t="n">
-        <v>2184866.821889032</v>
+        <v>2329082.608899845</v>
       </c>
       <c r="AE4" t="n">
-        <v>2989431.175229924</v>
+        <v>3186753.577369792</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.514587962828125e-07</v>
+        <v>1.437933940040854e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>36</v>
+        <v>35.27669270833334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2704124.059558985</v>
+        <v>2882614.288582236</v>
       </c>
     </row>
     <row r="5">
@@ -9016,28 +9016,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1996.459468578938</v>
+        <v>2132.739130932576</v>
       </c>
       <c r="AB5" t="n">
-        <v>2731.643922485253</v>
+        <v>2918.107768751881</v>
       </c>
       <c r="AC5" t="n">
-        <v>2470.939660409585</v>
+        <v>2639.607658892177</v>
       </c>
       <c r="AD5" t="n">
-        <v>1996459.468578938</v>
+        <v>2132739.130932576</v>
       </c>
       <c r="AE5" t="n">
-        <v>2731643.922485253</v>
+        <v>2918107.768751881</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.865147120539609e-07</v>
+        <v>1.490913734103911e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>35</v>
+        <v>34.02018229166666</v>
       </c>
       <c r="AH5" t="n">
-        <v>2470939.660409585</v>
+        <v>2639607.658892177</v>
       </c>
     </row>
     <row r="6">
@@ -9122,28 +9122,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1871.337364865767</v>
+        <v>2007.531686364833</v>
       </c>
       <c r="AB6" t="n">
-        <v>2560.446340187259</v>
+        <v>2746.793419331688</v>
       </c>
       <c r="AC6" t="n">
-        <v>2316.080935088795</v>
+        <v>2484.643310539449</v>
       </c>
       <c r="AD6" t="n">
-        <v>1871337.364865767</v>
+        <v>2007531.686364833</v>
       </c>
       <c r="AE6" t="n">
-        <v>2560446.340187259</v>
+        <v>2746793.419331688</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.005692360093471e-06</v>
+        <v>1.519896797914878e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>34</v>
+        <v>33.37239583333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>2316080.935088795</v>
+        <v>2484643.310539449</v>
       </c>
     </row>
     <row r="7">
@@ -9228,28 +9228,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1866.15438166517</v>
+        <v>2002.348703164236</v>
       </c>
       <c r="AB7" t="n">
-        <v>2553.354753915121</v>
+        <v>2739.70183305955</v>
       </c>
       <c r="AC7" t="n">
-        <v>2309.666159857366</v>
+        <v>2478.22853530802</v>
       </c>
       <c r="AD7" t="n">
-        <v>1866154.38166517</v>
+        <v>2002348.703164236</v>
       </c>
       <c r="AE7" t="n">
-        <v>2553354.753915121</v>
+        <v>2739701.83305955</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.007651367151271e-06</v>
+        <v>1.52285743346546e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>34</v>
+        <v>33.30729166666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>2309666.159857366</v>
+        <v>2478228.53530802</v>
       </c>
     </row>
   </sheetData>
@@ -9525,28 +9525,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2001.721853859023</v>
+        <v>2152.727494401253</v>
       </c>
       <c r="AB2" t="n">
-        <v>2738.844150185518</v>
+        <v>2945.456729474085</v>
       </c>
       <c r="AC2" t="n">
-        <v>2477.452708483719</v>
+        <v>2664.346473187562</v>
       </c>
       <c r="AD2" t="n">
-        <v>2001721.853859023</v>
+        <v>2152727.494401253</v>
       </c>
       <c r="AE2" t="n">
-        <v>2738844.150185518</v>
+        <v>2945456.729474085</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.242405160544543e-07</v>
+        <v>1.460751035812049e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.423828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>2477452.708483719</v>
+        <v>2664346.473187562</v>
       </c>
     </row>
     <row r="3">
@@ -9631,28 +9631,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1520.750109104645</v>
+        <v>1656.723377718615</v>
       </c>
       <c r="AB3" t="n">
-        <v>2080.757390036761</v>
+        <v>2266.802014871637</v>
       </c>
       <c r="AC3" t="n">
-        <v>1882.172825092991</v>
+        <v>2050.461612048897</v>
       </c>
       <c r="AD3" t="n">
-        <v>1520750.109104645</v>
+        <v>1656723.377718615</v>
       </c>
       <c r="AE3" t="n">
-        <v>2080757.390036761</v>
+        <v>2266802.014871637</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.048151652214353e-06</v>
+        <v>1.656591098382466e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>35</v>
+        <v>34.76236979166666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1882172.825092991</v>
+        <v>2050461.612048897</v>
       </c>
     </row>
     <row r="4">
@@ -9737,28 +9737,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1528.213336454495</v>
+        <v>1664.186605068464</v>
       </c>
       <c r="AB4" t="n">
-        <v>2090.968906951179</v>
+        <v>2277.013531786055</v>
       </c>
       <c r="AC4" t="n">
-        <v>1891.40976916505</v>
+        <v>2059.698556120956</v>
       </c>
       <c r="AD4" t="n">
-        <v>1528213.336454495</v>
+        <v>1664186.605068464</v>
       </c>
       <c r="AE4" t="n">
-        <v>2090968.906951179</v>
+        <v>2277013.531786054</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.049494862362427e-06</v>
+        <v>1.658714025890005e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>35</v>
+        <v>34.72005208333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1891409.76916505</v>
+        <v>2059698.556120956</v>
       </c>
     </row>
   </sheetData>
@@ -10034,28 +10034,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7540.773158826427</v>
+        <v>7820.250504647815</v>
       </c>
       <c r="AB2" t="n">
-        <v>10317.61851133962</v>
+        <v>10700.01174556278</v>
       </c>
       <c r="AC2" t="n">
-        <v>9332.919481485509</v>
+        <v>9678.817642126669</v>
       </c>
       <c r="AD2" t="n">
-        <v>7540773.158826427</v>
+        <v>7820250.504647816</v>
       </c>
       <c r="AE2" t="n">
-        <v>10317618.51133962</v>
+        <v>10700011.74556278</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.884501362884913e-07</v>
+        <v>7.121047565104707e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>64</v>
+        <v>63.79231770833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>9332919.481485508</v>
+        <v>9678817.642126668</v>
       </c>
     </row>
     <row r="3">
@@ -10140,28 +10140,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3970.17704458849</v>
+        <v>4156.438470741585</v>
       </c>
       <c r="AB3" t="n">
-        <v>5432.171384255893</v>
+        <v>5687.022484792747</v>
       </c>
       <c r="AC3" t="n">
-        <v>4913.732571442728</v>
+        <v>5144.261040630101</v>
       </c>
       <c r="AD3" t="n">
-        <v>3970177.04458849</v>
+        <v>4156438.470741585</v>
       </c>
       <c r="AE3" t="n">
-        <v>5432171.384255893</v>
+        <v>5687022.484792748</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.204711298929012e-07</v>
+        <v>1.050364981825262e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>44</v>
+        <v>43.24544270833334</v>
       </c>
       <c r="AH3" t="n">
-        <v>4913732.571442728</v>
+        <v>5144261.040630101</v>
       </c>
     </row>
     <row r="4">
@@ -10246,28 +10246,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3280.225280823372</v>
+        <v>3449.623593017608</v>
       </c>
       <c r="AB4" t="n">
-        <v>4488.148942548831</v>
+        <v>4719.92718661909</v>
       </c>
       <c r="AC4" t="n">
-        <v>4059.806306628404</v>
+        <v>4269.463960387397</v>
       </c>
       <c r="AD4" t="n">
-        <v>3280225.280823372</v>
+        <v>3449623.593017608</v>
       </c>
       <c r="AE4" t="n">
-        <v>4488148.942548831</v>
+        <v>4719927.18661909</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.082447483480347e-07</v>
+        <v>1.178328936698886e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>39</v>
+        <v>38.55143229166666</v>
       </c>
       <c r="AH4" t="n">
-        <v>4059806.306628404</v>
+        <v>4269463.960387398</v>
       </c>
     </row>
     <row r="5">
@@ -10352,28 +10352,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2975.19905264577</v>
+        <v>3135.952589986973</v>
       </c>
       <c r="AB5" t="n">
-        <v>4070.798600348759</v>
+        <v>4290.748682084547</v>
       </c>
       <c r="AC5" t="n">
-        <v>3682.287295333038</v>
+        <v>3881.245649969833</v>
       </c>
       <c r="AD5" t="n">
-        <v>2975199.05264577</v>
+        <v>3135952.589986973</v>
       </c>
       <c r="AE5" t="n">
-        <v>4070798.600348759</v>
+        <v>4290748.682084547</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.545723724835687e-07</v>
+        <v>1.245869344723786e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>37</v>
+        <v>36.45833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>3682287.295333038</v>
+        <v>3881245.649969833</v>
       </c>
     </row>
     <row r="6">
@@ -10458,28 +10458,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2792.976258973877</v>
+        <v>2945.340954517211</v>
       </c>
       <c r="AB6" t="n">
-        <v>3821.473334944574</v>
+        <v>4029.945433242938</v>
       </c>
       <c r="AC6" t="n">
-        <v>3456.757283328831</v>
+        <v>3645.333097158019</v>
       </c>
       <c r="AD6" t="n">
-        <v>2792976.258973877</v>
+        <v>2945340.954517211</v>
       </c>
       <c r="AE6" t="n">
-        <v>3821473.334944574</v>
+        <v>4029945.433242938</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.8357499668412e-07</v>
+        <v>1.288151872888136e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>36</v>
+        <v>35.26692708333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>3456757.283328831</v>
+        <v>3645333.097158019</v>
       </c>
     </row>
     <row r="7">
@@ -10564,28 +10564,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2664.203855679193</v>
+        <v>2816.653802568547</v>
       </c>
       <c r="AB7" t="n">
-        <v>3645.281251719292</v>
+        <v>3853.869994670305</v>
       </c>
       <c r="AC7" t="n">
-        <v>3297.380725239434</v>
+        <v>3486.062051319335</v>
       </c>
       <c r="AD7" t="n">
-        <v>2664203.855679193</v>
+        <v>2816653.802568547</v>
       </c>
       <c r="AE7" t="n">
-        <v>3645281.251719291</v>
+        <v>3853869.994670305</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.030057977161722e-07</v>
+        <v>1.316479771295273e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>35</v>
+        <v>34.50520833333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>3297380.725239434</v>
+        <v>3486062.051319335</v>
       </c>
     </row>
     <row r="8">
@@ -10670,28 +10670,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2558.952973674172</v>
+        <v>2711.317579708954</v>
       </c>
       <c r="AB8" t="n">
-        <v>3501.27235161881</v>
+        <v>3709.744327447625</v>
       </c>
       <c r="AC8" t="n">
-        <v>3167.115832446787</v>
+        <v>3355.691535494749</v>
       </c>
       <c r="AD8" t="n">
-        <v>2558952.973674172</v>
+        <v>2711317.579708954</v>
       </c>
       <c r="AE8" t="n">
-        <v>3501272.35161881</v>
+        <v>3709744.327447624</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.171720960055505e-07</v>
+        <v>1.337132623335946e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>34</v>
+        <v>33.97135416666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>3167115.832446787</v>
+        <v>3355691.535494749</v>
       </c>
     </row>
     <row r="9">
@@ -10776,28 +10776,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2480.534552408329</v>
+        <v>2624.595657499815</v>
       </c>
       <c r="AB9" t="n">
-        <v>3393.976808066296</v>
+        <v>3591.087567579884</v>
       </c>
       <c r="AC9" t="n">
-        <v>3070.060424980689</v>
+        <v>3248.35921025298</v>
       </c>
       <c r="AD9" t="n">
-        <v>2480534.552408329</v>
+        <v>2624595.657499815</v>
       </c>
       <c r="AE9" t="n">
-        <v>3393976.808066296</v>
+        <v>3591087.567579884</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.27796819722584e-07</v>
+        <v>1.35262226236645e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>34</v>
+        <v>33.58072916666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>3070060.424980689</v>
+        <v>3248359.21025298</v>
       </c>
     </row>
     <row r="10">
@@ -10882,28 +10882,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2400.261719028604</v>
+        <v>2544.152231919497</v>
       </c>
       <c r="AB10" t="n">
-        <v>3284.14397604868</v>
+        <v>3481.021323787421</v>
       </c>
       <c r="AC10" t="n">
-        <v>2970.70988429949</v>
+        <v>3148.797534289131</v>
       </c>
       <c r="AD10" t="n">
-        <v>2400261.719028604</v>
+        <v>2544152.231919497</v>
       </c>
       <c r="AE10" t="n">
-        <v>3284143.97604868</v>
+        <v>3481021.323787421</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.371772064277128e-07</v>
+        <v>1.366297799528516e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>34</v>
+        <v>33.24869791666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>2970709.88429949</v>
+        <v>3148797.534289131</v>
       </c>
     </row>
     <row r="11">
@@ -10988,28 +10988,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2335.779618469152</v>
+        <v>2479.670131360045</v>
       </c>
       <c r="AB11" t="n">
-        <v>3195.916721313727</v>
+        <v>3392.794069052468</v>
       </c>
       <c r="AC11" t="n">
-        <v>2890.902914928715</v>
+        <v>3068.990564918356</v>
       </c>
       <c r="AD11" t="n">
-        <v>2335779.618469152</v>
+        <v>2479670.131360045</v>
       </c>
       <c r="AE11" t="n">
-        <v>3195916.721313727</v>
+        <v>3392794.069052469</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.436860461822919e-07</v>
+        <v>1.37578694776342e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>34</v>
+        <v>33.02083333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>2890902.914928715</v>
+        <v>3068990.564918356</v>
       </c>
     </row>
     <row r="12">
@@ -11094,28 +11094,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2276.595557449677</v>
+        <v>2420.571321686592</v>
       </c>
       <c r="AB12" t="n">
-        <v>3114.938478010382</v>
+        <v>3311.932470401773</v>
       </c>
       <c r="AC12" t="n">
-        <v>2817.653121512566</v>
+        <v>2995.846283752919</v>
       </c>
       <c r="AD12" t="n">
-        <v>2276595.557449677</v>
+        <v>2420571.321686591</v>
       </c>
       <c r="AE12" t="n">
-        <v>3114938.478010383</v>
+        <v>3311932.470401773</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.478976483764315e-07</v>
+        <v>1.381926984856592e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>33</v>
+        <v>32.87109375</v>
       </c>
       <c r="AH12" t="n">
-        <v>2817653.121512566</v>
+        <v>2995846.283752919</v>
       </c>
     </row>
     <row r="13">
@@ -11200,28 +11200,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2266.819309883019</v>
+        <v>2410.795074119934</v>
       </c>
       <c r="AB13" t="n">
-        <v>3101.562184792077</v>
+        <v>3298.556177183467</v>
       </c>
       <c r="AC13" t="n">
-        <v>2805.553442945271</v>
+        <v>2983.746605185624</v>
       </c>
       <c r="AD13" t="n">
-        <v>2266819.309883019</v>
+        <v>2410795.074119934</v>
       </c>
       <c r="AE13" t="n">
-        <v>3101562.184792078</v>
+        <v>3298556.177183467</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.490462671566513e-07</v>
+        <v>1.383601540427458e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>33</v>
+        <v>32.83203125</v>
       </c>
       <c r="AH13" t="n">
-        <v>2805553.442945271</v>
+        <v>2983746.605185624</v>
       </c>
     </row>
     <row r="14">
@@ -11306,28 +11306,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2275.861797769116</v>
+        <v>2419.83756200603</v>
       </c>
       <c r="AB14" t="n">
-        <v>3113.934515644245</v>
+        <v>3310.928508035636</v>
       </c>
       <c r="AC14" t="n">
-        <v>2816.744975905583</v>
+        <v>2994.938138145937</v>
       </c>
       <c r="AD14" t="n">
-        <v>2275861.797769116</v>
+        <v>2419837.56200603</v>
       </c>
       <c r="AE14" t="n">
-        <v>3113934.515644245</v>
+        <v>3310928.508035636</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.490462671566513e-07</v>
+        <v>1.383601540427458e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>33</v>
+        <v>32.83203125</v>
       </c>
       <c r="AH14" t="n">
-        <v>2816744.975905583</v>
+        <v>2994938.138145937</v>
       </c>
     </row>
   </sheetData>
@@ -11603,28 +11603,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1637.986720841631</v>
+        <v>1779.258598481463</v>
       </c>
       <c r="AB2" t="n">
-        <v>2241.165694329586</v>
+        <v>2434.460109791779</v>
       </c>
       <c r="AC2" t="n">
-        <v>2027.271985958577</v>
+        <v>2202.118653699476</v>
       </c>
       <c r="AD2" t="n">
-        <v>1637986.720841631</v>
+        <v>1779258.598481463</v>
       </c>
       <c r="AE2" t="n">
-        <v>2241165.694329586</v>
+        <v>2434460.109791779</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.916714907237493e-07</v>
+        <v>1.588890669469928e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.60091145833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2027271.985958577</v>
+        <v>2202118.653699475</v>
       </c>
     </row>
     <row r="3">
@@ -11709,28 +11709,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1442.647252485309</v>
+        <v>1576.313175943506</v>
       </c>
       <c r="AB3" t="n">
-        <v>1973.893615955334</v>
+        <v>2156.781229355197</v>
       </c>
       <c r="AC3" t="n">
-        <v>1785.507979625646</v>
+        <v>1950.941055887004</v>
       </c>
       <c r="AD3" t="n">
-        <v>1442647.252485309</v>
+        <v>1576313.175943506</v>
       </c>
       <c r="AE3" t="n">
-        <v>1973893.615955334</v>
+        <v>2156781.229355197</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.051810976992661e-06</v>
+        <v>1.685248253098404e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>35.45247395833334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1785507.979625646</v>
+        <v>1950941.055887004</v>
       </c>
     </row>
   </sheetData>
@@ -12006,28 +12006,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5188.477292996356</v>
+        <v>5418.751318956433</v>
       </c>
       <c r="AB2" t="n">
-        <v>7099.103531741273</v>
+        <v>7414.174613032911</v>
       </c>
       <c r="AC2" t="n">
-        <v>6421.575054326004</v>
+        <v>6706.576193824194</v>
       </c>
       <c r="AD2" t="n">
-        <v>5188477.292996355</v>
+        <v>5418751.318956434</v>
       </c>
       <c r="AE2" t="n">
-        <v>7099103.531741274</v>
+        <v>7414174.613032911</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.976772427832346e-07</v>
+        <v>8.874569880257859e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>54.20247395833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>6421575.054326003</v>
+        <v>6706576.193824194</v>
       </c>
     </row>
     <row r="3">
@@ -12112,28 +12112,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3121.889824498834</v>
+        <v>3286.468829592272</v>
       </c>
       <c r="AB3" t="n">
-        <v>4271.507385938247</v>
+        <v>4496.691641420371</v>
       </c>
       <c r="AC3" t="n">
-        <v>3863.84071612241</v>
+        <v>4067.533702309398</v>
       </c>
       <c r="AD3" t="n">
-        <v>3121889.824498834</v>
+        <v>3286468.829592272</v>
       </c>
       <c r="AE3" t="n">
-        <v>4271507.385938248</v>
+        <v>4496691.641420371</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.077499466652539e-07</v>
+        <v>1.199382013287596e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>41</v>
+        <v>40.10416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>3863840.716122409</v>
+        <v>4067533.702309398</v>
       </c>
     </row>
     <row r="4">
@@ -12218,28 +12218,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2651.42050046181</v>
+        <v>2807.766203224724</v>
       </c>
       <c r="AB4" t="n">
-        <v>3627.790501149037</v>
+        <v>3841.709589154874</v>
       </c>
       <c r="AC4" t="n">
-        <v>3281.559267355183</v>
+        <v>3475.06221783906</v>
       </c>
       <c r="AD4" t="n">
-        <v>2651420.50046181</v>
+        <v>2807766.203224724</v>
       </c>
       <c r="AE4" t="n">
-        <v>3627790.501149037</v>
+        <v>3841709.589154874</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.845742609224397e-07</v>
+        <v>1.313454073686515e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>37</v>
+        <v>36.62109375</v>
       </c>
       <c r="AH4" t="n">
-        <v>3281559.267355183</v>
+        <v>3475062.21783906</v>
       </c>
     </row>
     <row r="5">
@@ -12324,28 +12324,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2433.74488258379</v>
+        <v>2581.772121178709</v>
       </c>
       <c r="AB5" t="n">
-        <v>3329.957117597809</v>
+        <v>3532.494515944258</v>
       </c>
       <c r="AC5" t="n">
-        <v>3012.150683918317</v>
+        <v>3195.358197229596</v>
       </c>
       <c r="AD5" t="n">
-        <v>2433744.88258379</v>
+        <v>2581772.121178709</v>
       </c>
       <c r="AE5" t="n">
-        <v>3329957.11759781</v>
+        <v>3532494.515944258</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.239815516554002e-07</v>
+        <v>1.371967721248655e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>36</v>
+        <v>35.06184895833334</v>
       </c>
       <c r="AH5" t="n">
-        <v>3012150.683918317</v>
+        <v>3195358.197229596</v>
       </c>
     </row>
     <row r="6">
@@ -12430,28 +12430,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2283.502457579546</v>
+        <v>2423.381824207065</v>
       </c>
       <c r="AB6" t="n">
-        <v>3124.388803478997</v>
+        <v>3315.777923940905</v>
       </c>
       <c r="AC6" t="n">
-        <v>2826.20152118207</v>
+        <v>2999.324732603405</v>
       </c>
       <c r="AD6" t="n">
-        <v>2283502.457579546</v>
+        <v>2423381.824207065</v>
       </c>
       <c r="AE6" t="n">
-        <v>3124388.803478997</v>
+        <v>3315777.923940905</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.484618383228453e-07</v>
+        <v>1.40831710837059e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>35</v>
+        <v>34.15364583333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>2826201.52118207</v>
+        <v>2999324.732603405</v>
       </c>
     </row>
     <row r="7">
@@ -12536,28 +12536,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2165.091348510823</v>
+        <v>2305.055966484365</v>
       </c>
       <c r="AB7" t="n">
-        <v>2962.373500121546</v>
+        <v>3153.879265236277</v>
       </c>
       <c r="AC7" t="n">
-        <v>2679.648730987267</v>
+        <v>2852.877454659357</v>
       </c>
       <c r="AD7" t="n">
-        <v>2165091.348510823</v>
+        <v>2305055.966484366</v>
       </c>
       <c r="AE7" t="n">
-        <v>2962373.500121546</v>
+        <v>3153879.265236277</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.65379109597096e-07</v>
+        <v>1.433436603536155e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>34</v>
+        <v>33.5546875</v>
       </c>
       <c r="AH7" t="n">
-        <v>2679648.730987267</v>
+        <v>2852877.454659357</v>
       </c>
     </row>
     <row r="8">
@@ -12642,28 +12642,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2069.517088722366</v>
+        <v>2209.311114495316</v>
       </c>
       <c r="AB8" t="n">
-        <v>2831.604581440219</v>
+        <v>3022.876934780094</v>
       </c>
       <c r="AC8" t="n">
-        <v>2561.360214369554</v>
+        <v>2734.377802758992</v>
       </c>
       <c r="AD8" t="n">
-        <v>2069517.088722366</v>
+        <v>2209311.114495316</v>
       </c>
       <c r="AE8" t="n">
-        <v>2831604.581440219</v>
+        <v>3022876.934780094</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.773207128495083e-07</v>
+        <v>1.451168011888319e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>34</v>
+        <v>33.14453125</v>
       </c>
       <c r="AH8" t="n">
-        <v>2561360.214369554</v>
+        <v>2734377.802758992</v>
       </c>
     </row>
     <row r="9">
@@ -12748,28 +12748,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2044.086455798929</v>
+        <v>2183.880481571876</v>
       </c>
       <c r="AB9" t="n">
-        <v>2796.80926755403</v>
+        <v>2988.081620893728</v>
       </c>
       <c r="AC9" t="n">
-        <v>2529.885716405133</v>
+        <v>2702.903304794525</v>
       </c>
       <c r="AD9" t="n">
-        <v>2044086.455798929</v>
+        <v>2183880.481571876</v>
       </c>
       <c r="AE9" t="n">
-        <v>2796809.26755403</v>
+        <v>2988081.620893728</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.805051403834848e-07</v>
+        <v>1.455896387448896e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>34</v>
+        <v>33.04036458333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>2529885.716405133</v>
+        <v>2702903.304794524</v>
       </c>
     </row>
     <row r="10">
@@ -12854,28 +12854,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2051.274989051158</v>
+        <v>2191.069014824108</v>
       </c>
       <c r="AB10" t="n">
-        <v>2806.644935885433</v>
+        <v>2997.917289225307</v>
       </c>
       <c r="AC10" t="n">
-        <v>2538.782682355435</v>
+        <v>2711.800270744872</v>
       </c>
       <c r="AD10" t="n">
-        <v>2051274.989051158</v>
+        <v>2191069.014824108</v>
       </c>
       <c r="AE10" t="n">
-        <v>2806644.935885434</v>
+        <v>2997917.289225307</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.811022205461055e-07</v>
+        <v>1.456782957866504e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>34</v>
+        <v>33.017578125</v>
       </c>
       <c r="AH10" t="n">
-        <v>2538782.682355435</v>
+        <v>2711800.270744872</v>
       </c>
     </row>
   </sheetData>
@@ -13151,28 +13151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6259.899712404485</v>
+        <v>6510.569555199315</v>
       </c>
       <c r="AB2" t="n">
-        <v>8565.070953796709</v>
+        <v>8908.04849148159</v>
       </c>
       <c r="AC2" t="n">
-        <v>7747.632603118613</v>
+        <v>8057.876845978831</v>
       </c>
       <c r="AD2" t="n">
-        <v>6259899.712404486</v>
+        <v>6510569.555199315</v>
       </c>
       <c r="AE2" t="n">
-        <v>8565070.953796709</v>
+        <v>8908048.491481589</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.406556169189913e-07</v>
+        <v>7.950029857044378e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>59</v>
+        <v>58.70768229166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>7747632.603118612</v>
+        <v>8057876.845978831</v>
       </c>
     </row>
     <row r="3">
@@ -13257,28 +13257,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3527.152028606454</v>
+        <v>3710.868481573538</v>
       </c>
       <c r="AB3" t="n">
-        <v>4826.005012504939</v>
+        <v>5077.373968452402</v>
       </c>
       <c r="AC3" t="n">
-        <v>4365.417867451862</v>
+        <v>4592.796523042233</v>
       </c>
       <c r="AD3" t="n">
-        <v>3527152.028606454</v>
+        <v>3710868.481573538</v>
       </c>
       <c r="AE3" t="n">
-        <v>4826005.012504939</v>
+        <v>5077373.968452401</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.627680597217796e-07</v>
+        <v>1.121606556747668e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>42</v>
+        <v>41.611328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>4365417.867451862</v>
+        <v>4592796.523042234</v>
       </c>
     </row>
     <row r="4">
@@ -13363,28 +13363,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2965.516954649281</v>
+        <v>3124.328570960568</v>
       </c>
       <c r="AB4" t="n">
-        <v>4057.551126725944</v>
+        <v>4274.844186437093</v>
       </c>
       <c r="AC4" t="n">
-        <v>3670.304141999839</v>
+        <v>3866.859057064873</v>
       </c>
       <c r="AD4" t="n">
-        <v>2965516.954649281</v>
+        <v>3124328.570960568</v>
       </c>
       <c r="AE4" t="n">
-        <v>4057551.126725943</v>
+        <v>4274844.186437093</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.446708042144673e-07</v>
+        <v>1.242039831408033e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>38</v>
+        <v>37.578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>3670304.141999839</v>
+        <v>3866859.057064873</v>
       </c>
     </row>
     <row r="5">
@@ -13469,28 +13469,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2703.509005235919</v>
+        <v>2862.149939838063</v>
       </c>
       <c r="AB5" t="n">
-        <v>3699.060291363624</v>
+        <v>3916.119816830379</v>
       </c>
       <c r="AC5" t="n">
-        <v>3346.027168819467</v>
+        <v>3542.370837820623</v>
       </c>
       <c r="AD5" t="n">
-        <v>2703509.005235919</v>
+        <v>2862149.939838063</v>
       </c>
       <c r="AE5" t="n">
-        <v>3699060.291363624</v>
+        <v>3916119.816830379</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.876697450731282e-07</v>
+        <v>1.305267300604725e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>36</v>
+        <v>35.75520833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>3346027.168819467</v>
+        <v>3542370.837820623</v>
       </c>
     </row>
     <row r="6">
@@ -13575,28 +13575,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2540.329025855379</v>
+        <v>2690.696795190448</v>
       </c>
       <c r="AB6" t="n">
-        <v>3475.790244582547</v>
+        <v>3681.530060344595</v>
       </c>
       <c r="AC6" t="n">
-        <v>3144.065701941704</v>
+        <v>3330.16999844506</v>
       </c>
       <c r="AD6" t="n">
-        <v>2540329.025855379</v>
+        <v>2690696.795190448</v>
       </c>
       <c r="AE6" t="n">
-        <v>3475790.244582546</v>
+        <v>3681530.060344595</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.143856403005048e-07</v>
+        <v>1.344551487815368e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>35</v>
+        <v>34.71028645833334</v>
       </c>
       <c r="AH6" t="n">
-        <v>3144065.701941703</v>
+        <v>3330169.99844506</v>
       </c>
     </row>
     <row r="7">
@@ -13681,28 +13681,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2426.90955899662</v>
+        <v>2568.918911718593</v>
       </c>
       <c r="AB7" t="n">
-        <v>3320.60472631265</v>
+        <v>3514.908187717344</v>
       </c>
       <c r="AC7" t="n">
-        <v>3003.690871731249</v>
+        <v>3179.450283486093</v>
       </c>
       <c r="AD7" t="n">
-        <v>2426909.55899662</v>
+        <v>2568918.911718593</v>
       </c>
       <c r="AE7" t="n">
-        <v>3320604.72631265</v>
+        <v>3514908.187717345</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.325212480096001e-07</v>
+        <v>1.371218855775878e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>35</v>
+        <v>34.03645833333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>3003690.87173125</v>
+        <v>3179450.283486093</v>
       </c>
     </row>
     <row r="8">
@@ -13787,28 +13787,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2324.181373738599</v>
+        <v>2466.275977806593</v>
       </c>
       <c r="AB8" t="n">
-        <v>3180.04749119494</v>
+        <v>3374.467597252285</v>
       </c>
       <c r="AC8" t="n">
-        <v>2876.54822185986</v>
+        <v>3052.413145865417</v>
       </c>
       <c r="AD8" t="n">
-        <v>2324181.373738599</v>
+        <v>2466275.977806593</v>
       </c>
       <c r="AE8" t="n">
-        <v>3180047.49119494</v>
+        <v>3374467.597252285</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.458791956232883e-07</v>
+        <v>1.390860949381199e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>34</v>
+        <v>33.5546875</v>
       </c>
       <c r="AH8" t="n">
-        <v>2876548.22185986</v>
+        <v>3052413.145865418</v>
       </c>
     </row>
     <row r="9">
@@ -13893,28 +13893,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2235.374506099981</v>
+        <v>2377.298517967383</v>
       </c>
       <c r="AB9" t="n">
-        <v>3058.538017009286</v>
+        <v>3252.724711291784</v>
       </c>
       <c r="AC9" t="n">
-        <v>2766.635441350872</v>
+        <v>2942.289230073778</v>
       </c>
       <c r="AD9" t="n">
-        <v>2235374.506099981</v>
+        <v>2377298.517967383</v>
       </c>
       <c r="AE9" t="n">
-        <v>3058538.017009286</v>
+        <v>3252724.711291784</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.559220321503679e-07</v>
+        <v>1.405628362821697e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>34</v>
+        <v>33.203125</v>
       </c>
       <c r="AH9" t="n">
-        <v>2766635.441350872</v>
+        <v>2942289.230073778</v>
       </c>
     </row>
     <row r="10">
@@ -13999,28 +13999,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2161.588966890467</v>
+        <v>2303.598230103891</v>
       </c>
       <c r="AB10" t="n">
-        <v>2957.581387074402</v>
+        <v>3151.884726009722</v>
       </c>
       <c r="AC10" t="n">
-        <v>2675.313970483568</v>
+        <v>2851.073271457232</v>
       </c>
       <c r="AD10" t="n">
-        <v>2161588.966890466</v>
+        <v>2303598.230103891</v>
       </c>
       <c r="AE10" t="n">
-        <v>2957581.387074402</v>
+        <v>3151884.726009722</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.632347771943578e-07</v>
+        <v>1.416381333773515e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>33</v>
+        <v>32.94921875</v>
       </c>
       <c r="AH10" t="n">
-        <v>2675313.970483568</v>
+        <v>2851073.271457232</v>
       </c>
     </row>
     <row r="11">
@@ -14105,28 +14105,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2156.463782187599</v>
+        <v>2298.473045401024</v>
       </c>
       <c r="AB11" t="n">
-        <v>2950.568883256748</v>
+        <v>3144.872222192068</v>
       </c>
       <c r="AC11" t="n">
-        <v>2668.97073018816</v>
+        <v>2844.730031161823</v>
       </c>
       <c r="AD11" t="n">
-        <v>2156463.7821876</v>
+        <v>2298473.045401024</v>
       </c>
       <c r="AE11" t="n">
-        <v>2950568.883256748</v>
+        <v>3144872.222192068</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.643073131341429e-07</v>
+        <v>1.417958436179782e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>33</v>
+        <v>32.91341145833334</v>
       </c>
       <c r="AH11" t="n">
-        <v>2668970.73018816</v>
+        <v>2844730.031161823</v>
       </c>
     </row>
     <row r="12">
@@ -14211,28 +14211,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2167.023444111551</v>
+        <v>2309.032707324975</v>
       </c>
       <c r="AB12" t="n">
-        <v>2965.017078560504</v>
+        <v>3159.320417495824</v>
       </c>
       <c r="AC12" t="n">
-        <v>2682.040010010295</v>
+        <v>2857.799310983958</v>
       </c>
       <c r="AD12" t="n">
-        <v>2167023.444111551</v>
+        <v>2309032.707324976</v>
       </c>
       <c r="AE12" t="n">
-        <v>2965017.078560504</v>
+        <v>3159320.417495824</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.641123065996366e-07</v>
+        <v>1.417671690287733e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>33</v>
+        <v>32.919921875</v>
       </c>
       <c r="AH12" t="n">
-        <v>2682040.010010295</v>
+        <v>2857799.310983958</v>
       </c>
     </row>
   </sheetData>
@@ -14508,28 +14508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9070.886967360728</v>
+        <v>9379.497520950843</v>
       </c>
       <c r="AB2" t="n">
-        <v>12411.18772803342</v>
+        <v>12833.44230239217</v>
       </c>
       <c r="AC2" t="n">
-        <v>11226.68139048082</v>
+        <v>11608.63658090078</v>
       </c>
       <c r="AD2" t="n">
-        <v>9070886.967360727</v>
+        <v>9379497.520950843</v>
       </c>
       <c r="AE2" t="n">
-        <v>12411187.72803342</v>
+        <v>12833442.30239217</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.409166175430269e-07</v>
+        <v>6.379060399931733e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>70</v>
+        <v>69.48893229166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>11226681.39048082</v>
+        <v>11608636.58090078</v>
       </c>
     </row>
     <row r="3">
@@ -14614,28 +14614,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4425.630157762679</v>
+        <v>4631.342020198866</v>
       </c>
       <c r="AB3" t="n">
-        <v>6055.342426874103</v>
+        <v>6336.806472426171</v>
       </c>
       <c r="AC3" t="n">
-        <v>5477.429044379482</v>
+        <v>5732.030556461321</v>
       </c>
       <c r="AD3" t="n">
-        <v>4425630.157762679</v>
+        <v>4631342.020198866</v>
       </c>
       <c r="AE3" t="n">
-        <v>6055342.426874103</v>
+        <v>6336806.472426171</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.816561495974692e-07</v>
+        <v>9.862013762370446e-07</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.94140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>5477429.044379482</v>
+        <v>5732030.556461321</v>
       </c>
     </row>
     <row r="4">
@@ -14720,28 +14720,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3604.095493499076</v>
+        <v>3775.73539766566</v>
       </c>
       <c r="AB4" t="n">
-        <v>4931.28245567713</v>
+        <v>5166.127744776016</v>
       </c>
       <c r="AC4" t="n">
-        <v>4460.647779205514</v>
+        <v>4673.079763520227</v>
       </c>
       <c r="AD4" t="n">
-        <v>3604095.493499076</v>
+        <v>3775735.39766566</v>
       </c>
       <c r="AE4" t="n">
-        <v>4931282.45567713</v>
+        <v>5166127.744776016</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.741686437372334e-07</v>
+        <v>1.120045909281503e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>40</v>
+        <v>39.57356770833334</v>
       </c>
       <c r="AH4" t="n">
-        <v>4460647.779205514</v>
+        <v>4673079.763520227</v>
       </c>
     </row>
     <row r="5">
@@ -14826,28 +14826,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3251.47895384114</v>
+        <v>3414.366270598802</v>
       </c>
       <c r="AB5" t="n">
-        <v>4448.816949773296</v>
+        <v>4671.68656264239</v>
       </c>
       <c r="AC5" t="n">
-        <v>4024.228104040569</v>
+        <v>4225.827353856896</v>
       </c>
       <c r="AD5" t="n">
-        <v>3251478.95384114</v>
+        <v>3414366.270598802</v>
       </c>
       <c r="AE5" t="n">
-        <v>4448816.949773296</v>
+        <v>4671686.56264239</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.235776563754594e-07</v>
+        <v>1.191529510347974e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>38</v>
+        <v>37.20052083333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>4024228.104040569</v>
+        <v>4225827.353856895</v>
       </c>
     </row>
     <row r="6">
@@ -14932,28 +14932,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3036.951039066804</v>
+        <v>3199.838266315915</v>
       </c>
       <c r="AB6" t="n">
-        <v>4155.29039247539</v>
+        <v>4378.159882874936</v>
       </c>
       <c r="AC6" t="n">
-        <v>3758.715309404076</v>
+        <v>3960.314448439174</v>
       </c>
       <c r="AD6" t="n">
-        <v>3036951.039066804</v>
+        <v>3199838.266315915</v>
       </c>
       <c r="AE6" t="n">
-        <v>4155290.39247539</v>
+        <v>4378159.882874936</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.54634750033773e-07</v>
+        <v>1.236462059589756e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>36</v>
+        <v>35.84309895833334</v>
       </c>
       <c r="AH6" t="n">
-        <v>3758715.309404077</v>
+        <v>3960314.448439174</v>
       </c>
     </row>
     <row r="7">
@@ -15038,28 +15038,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2908.529717692561</v>
+        <v>3062.835039241894</v>
       </c>
       <c r="AB7" t="n">
-        <v>3979.578675022296</v>
+        <v>4190.706023436445</v>
       </c>
       <c r="AC7" t="n">
-        <v>3599.773271651768</v>
+        <v>3790.750922252357</v>
       </c>
       <c r="AD7" t="n">
-        <v>2908529.717692561</v>
+        <v>3062835.039241894</v>
       </c>
       <c r="AE7" t="n">
-        <v>3979578.675022296</v>
+        <v>4190706.023436446</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.750571419242396e-07</v>
+        <v>1.26600861469723e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>36</v>
+        <v>35.009765625</v>
       </c>
       <c r="AH7" t="n">
-        <v>3599773.271651768</v>
+        <v>3790750.922252357</v>
       </c>
     </row>
     <row r="8">
@@ -15144,28 +15144,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2798.195008620859</v>
+        <v>2952.41498931562</v>
       </c>
       <c r="AB8" t="n">
-        <v>3828.613858446561</v>
+        <v>4039.624439738513</v>
       </c>
       <c r="AC8" t="n">
-        <v>3463.216325289576</v>
+        <v>3654.088352858226</v>
       </c>
       <c r="AD8" t="n">
-        <v>2798195.00862086</v>
+        <v>2952414.989315621</v>
       </c>
       <c r="AE8" t="n">
-        <v>3828613.858446561</v>
+        <v>4039624.439738513</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.902092391332957e-07</v>
+        <v>1.287930252357615e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>35</v>
+        <v>34.4140625</v>
       </c>
       <c r="AH8" t="n">
-        <v>3463216.325289576</v>
+        <v>3654088.352858226</v>
       </c>
     </row>
     <row r="9">
@@ -15250,28 +15250,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2705.995569675272</v>
+        <v>2860.300801716055</v>
       </c>
       <c r="AB9" t="n">
-        <v>3702.46251852903</v>
+        <v>3913.589744473631</v>
       </c>
       <c r="AC9" t="n">
-        <v>3349.10469219926</v>
+        <v>3540.082232018623</v>
       </c>
       <c r="AD9" t="n">
-        <v>2705995.569675272</v>
+        <v>2860300.801716055</v>
       </c>
       <c r="AE9" t="n">
-        <v>3702462.51852903</v>
+        <v>3913589.744473631</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.021615145714952e-07</v>
+        <v>1.305222475853695e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>34</v>
+        <v>33.95833333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>3349104.69219926</v>
+        <v>3540082.232018624</v>
       </c>
     </row>
     <row r="10">
@@ -15356,28 +15356,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2631.271440480178</v>
+        <v>2777.165359021774</v>
       </c>
       <c r="AB10" t="n">
-        <v>3600.221668368378</v>
+        <v>3799.840164102429</v>
       </c>
       <c r="AC10" t="n">
-        <v>3256.621565282011</v>
+        <v>3437.188751949515</v>
       </c>
       <c r="AD10" t="n">
-        <v>2631271.440480178</v>
+        <v>2777165.359021774</v>
       </c>
       <c r="AE10" t="n">
-        <v>3600221.668368378</v>
+        <v>3799840.16410243</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.114786426689893e-07</v>
+        <v>1.318702240626229e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>34</v>
+        <v>33.61002604166666</v>
       </c>
       <c r="AH10" t="n">
-        <v>3256621.565282011</v>
+        <v>3437188.751949515</v>
       </c>
     </row>
     <row r="11">
@@ -15462,28 +15462,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2564.637811740139</v>
+        <v>2710.361138081144</v>
       </c>
       <c r="AB11" t="n">
-        <v>3509.050597858022</v>
+        <v>3708.435681817227</v>
       </c>
       <c r="AC11" t="n">
-        <v>3174.151733781766</v>
+        <v>3354.507785166619</v>
       </c>
       <c r="AD11" t="n">
-        <v>2564637.811740139</v>
+        <v>2710361.138081144</v>
       </c>
       <c r="AE11" t="n">
-        <v>3509050.597858022</v>
+        <v>3708435.681817227</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.188194102609541e-07</v>
+        <v>1.329322661356105e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>34</v>
+        <v>33.34309895833334</v>
       </c>
       <c r="AH11" t="n">
-        <v>3174151.733781766</v>
+        <v>3354507.785166619</v>
       </c>
     </row>
     <row r="12">
@@ -15568,28 +15568,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2506.202149673029</v>
+        <v>2651.925476014033</v>
       </c>
       <c r="AB12" t="n">
-        <v>3429.096347018333</v>
+        <v>3628.481430977538</v>
       </c>
       <c r="AC12" t="n">
-        <v>3101.828204425724</v>
+        <v>3282.184255810577</v>
       </c>
       <c r="AD12" t="n">
-        <v>2506202.149673029</v>
+        <v>2651925.476014033</v>
       </c>
       <c r="AE12" t="n">
-        <v>3429096.347018333</v>
+        <v>3628481.430977538</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.249367165875918e-07</v>
+        <v>1.338173011964334e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>34</v>
+        <v>33.12174479166666</v>
       </c>
       <c r="AH12" t="n">
-        <v>3101828.204425724</v>
+        <v>3282184.255810577</v>
       </c>
     </row>
     <row r="13">
@@ -15674,28 +15674,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2440.79613373167</v>
+        <v>2586.604711418694</v>
       </c>
       <c r="AB13" t="n">
-        <v>3339.604950497586</v>
+        <v>3539.10667910944</v>
       </c>
       <c r="AC13" t="n">
-        <v>3020.877741186956</v>
+        <v>3201.339304822523</v>
       </c>
       <c r="AD13" t="n">
-        <v>2440796.13373167</v>
+        <v>2586604.711418694</v>
       </c>
       <c r="AE13" t="n">
-        <v>3339604.950497586</v>
+        <v>3539106.67910944</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.301128988639773e-07</v>
+        <v>1.345661770171298e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>33</v>
+        <v>32.939453125</v>
       </c>
       <c r="AH13" t="n">
-        <v>3020877.741186956</v>
+        <v>3201339.304822523</v>
       </c>
     </row>
     <row r="14">
@@ -15780,28 +15780,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2394.872298914135</v>
+        <v>2540.680876601159</v>
       </c>
       <c r="AB14" t="n">
-        <v>3276.769933683628</v>
+        <v>3476.271662295483</v>
       </c>
       <c r="AC14" t="n">
-        <v>2964.039610188225</v>
+        <v>3144.501173823792</v>
       </c>
       <c r="AD14" t="n">
-        <v>2394872.298914135</v>
+        <v>2540680.876601159</v>
       </c>
       <c r="AE14" t="n">
-        <v>3276769.933683628</v>
+        <v>3476271.662295483</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.339715074700103e-07</v>
+        <v>1.351244299016489e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>33</v>
+        <v>32.79947916666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>2964039.610188225</v>
+        <v>3144501.173823792</v>
       </c>
     </row>
     <row r="15">
@@ -15886,28 +15886,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2381.132313221345</v>
+        <v>2526.94089090837</v>
       </c>
       <c r="AB15" t="n">
-        <v>3257.970279093365</v>
+        <v>3457.472007705219</v>
       </c>
       <c r="AC15" t="n">
-        <v>2947.034168246576</v>
+        <v>3127.495731882143</v>
       </c>
       <c r="AD15" t="n">
-        <v>2381132.313221345</v>
+        <v>2526940.89090837</v>
       </c>
       <c r="AE15" t="n">
-        <v>3257970.279093365</v>
+        <v>3457472.007705219</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.354773059504133e-07</v>
+        <v>1.353422846858515e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>33</v>
+        <v>32.74739583333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>2947034.168246576</v>
+        <v>3127495.731882143</v>
       </c>
     </row>
     <row r="16">
@@ -15992,28 +15992,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2391.858737072542</v>
+        <v>2537.667314759567</v>
       </c>
       <c r="AB16" t="n">
-        <v>3272.646645422996</v>
+        <v>3472.14837403485</v>
       </c>
       <c r="AC16" t="n">
-        <v>2960.309842772116</v>
+        <v>3140.771406407682</v>
       </c>
       <c r="AD16" t="n">
-        <v>2391858.737072542</v>
+        <v>2537667.314759566</v>
       </c>
       <c r="AE16" t="n">
-        <v>3272646.645422996</v>
+        <v>3472148.37403485</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.352890811403629e-07</v>
+        <v>1.353150528378262e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>33</v>
+        <v>32.75390625</v>
       </c>
       <c r="AH16" t="n">
-        <v>2960309.842772116</v>
+        <v>3140771.406407682</v>
       </c>
     </row>
   </sheetData>
@@ -16289,28 +16289,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4250.817113582036</v>
+        <v>4453.127093065989</v>
       </c>
       <c r="AB2" t="n">
-        <v>5816.155507618923</v>
+        <v>6092.964946835263</v>
       </c>
       <c r="AC2" t="n">
-        <v>5261.069788997078</v>
+        <v>5511.460923839087</v>
       </c>
       <c r="AD2" t="n">
-        <v>4250817.113582036</v>
+        <v>4453127.093065989</v>
       </c>
       <c r="AE2" t="n">
-        <v>5816155.507618924</v>
+        <v>6092964.946835263</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.621044155627718e-07</v>
+        <v>9.942720137351257e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.05533854166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>5261069.788997078</v>
+        <v>5511460.923839087</v>
       </c>
     </row>
     <row r="3">
@@ -16395,28 +16395,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2718.520767703</v>
+        <v>2880.351611512408</v>
       </c>
       <c r="AB3" t="n">
-        <v>3719.600047043306</v>
+        <v>3941.0241470163</v>
       </c>
       <c r="AC3" t="n">
-        <v>3364.606639044806</v>
+        <v>3564.898333687045</v>
       </c>
       <c r="AD3" t="n">
-        <v>2718520.767703</v>
+        <v>2880351.611512408</v>
       </c>
       <c r="AE3" t="n">
-        <v>3719600.047043306</v>
+        <v>3941024.147016299</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.577932801962713e-07</v>
+        <v>1.288134970893193e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>39</v>
+        <v>38.63932291666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>3364606.639044806</v>
+        <v>3564898.333687045</v>
       </c>
     </row>
     <row r="4">
@@ -16501,28 +16501,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2340.833781583051</v>
+        <v>2494.483475304688</v>
       </c>
       <c r="AB4" t="n">
-        <v>3202.832050260105</v>
+        <v>3413.062339756141</v>
       </c>
       <c r="AC4" t="n">
-        <v>2897.158254586175</v>
+        <v>3087.324460312766</v>
       </c>
       <c r="AD4" t="n">
-        <v>2340833.781583051</v>
+        <v>2494483.475304688</v>
       </c>
       <c r="AE4" t="n">
-        <v>3202832.050260105</v>
+        <v>3413062.339756141</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.278421557778777e-07</v>
+        <v>1.39332628958453e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>36</v>
+        <v>35.71940104166666</v>
       </c>
       <c r="AH4" t="n">
-        <v>2897158.254586175</v>
+        <v>3087324.460312766</v>
       </c>
     </row>
     <row r="5">
@@ -16607,28 +16607,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2144.128788357943</v>
+        <v>2289.597421500362</v>
       </c>
       <c r="AB5" t="n">
-        <v>2933.69160051749</v>
+        <v>3132.728202006289</v>
       </c>
       <c r="AC5" t="n">
-        <v>2653.704191626122</v>
+        <v>2833.745019218337</v>
       </c>
       <c r="AD5" t="n">
-        <v>2144128.788357942</v>
+        <v>2289597.421500362</v>
       </c>
       <c r="AE5" t="n">
-        <v>2933691.60051749</v>
+        <v>3132728.202006289</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.643938219607221e-07</v>
+        <v>1.448215364308644e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>35</v>
+        <v>34.365234375</v>
       </c>
       <c r="AH5" t="n">
-        <v>2653704.191626122</v>
+        <v>2833745.019218337</v>
       </c>
     </row>
     <row r="6">
@@ -16713,28 +16713,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1998.876597454552</v>
+        <v>2136.505354418933</v>
       </c>
       <c r="AB6" t="n">
-        <v>2734.951144849067</v>
+        <v>2923.260881879969</v>
       </c>
       <c r="AC6" t="n">
-        <v>2473.931246112712</v>
+        <v>2644.26896613576</v>
       </c>
       <c r="AD6" t="n">
-        <v>1998876.597454552</v>
+        <v>2136505.354418933</v>
       </c>
       <c r="AE6" t="n">
-        <v>2734951.144849067</v>
+        <v>2923260.881879969</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.874040630674705e-07</v>
+        <v>1.482769489343879e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>34</v>
+        <v>33.56770833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>2473931.246112712</v>
+        <v>2644268.96613576</v>
       </c>
     </row>
     <row r="7">
@@ -16819,28 +16819,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1927.469851216065</v>
+        <v>2064.928015979855</v>
       </c>
       <c r="AB7" t="n">
-        <v>2637.249284402259</v>
+        <v>2825.325609658314</v>
       </c>
       <c r="AC7" t="n">
-        <v>2385.553914101525</v>
+        <v>2555.680498841922</v>
       </c>
       <c r="AD7" t="n">
-        <v>1927469.851216065</v>
+        <v>2064928.015979854</v>
       </c>
       <c r="AE7" t="n">
-        <v>2637249.28440226</v>
+        <v>2825325.609658314</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.97585585681076e-07</v>
+        <v>1.498058925200178e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>34</v>
+        <v>33.22591145833334</v>
       </c>
       <c r="AH7" t="n">
-        <v>2385553.914101525</v>
+        <v>2555680.498841922</v>
       </c>
     </row>
     <row r="8">
@@ -16925,28 +16925,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1930.458694021538</v>
+        <v>2067.916858785327</v>
       </c>
       <c r="AB8" t="n">
-        <v>2641.338750987145</v>
+        <v>2829.4150762432</v>
       </c>
       <c r="AC8" t="n">
-        <v>2389.253087735152</v>
+        <v>2559.379672475549</v>
       </c>
       <c r="AD8" t="n">
-        <v>1930458.694021538</v>
+        <v>2067916.858785328</v>
       </c>
       <c r="AE8" t="n">
-        <v>2641338.750987145</v>
+        <v>2829415.0762432</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.981964770378925e-07</v>
+        <v>1.498976291351556e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>34</v>
+        <v>33.203125</v>
       </c>
       <c r="AH8" t="n">
-        <v>2389253.087735152</v>
+        <v>2559379.672475549</v>
       </c>
     </row>
   </sheetData>
@@ -17222,28 +17222,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3063.343028834942</v>
+        <v>3243.99610379822</v>
       </c>
       <c r="AB2" t="n">
-        <v>4191.401077208572</v>
+        <v>4438.578584224528</v>
       </c>
       <c r="AC2" t="n">
-        <v>3791.379641067987</v>
+        <v>4014.96687373014</v>
       </c>
       <c r="AD2" t="n">
-        <v>3063343.028834942</v>
+        <v>3243996.10379822</v>
       </c>
       <c r="AE2" t="n">
-        <v>4191401.077208573</v>
+        <v>4438578.584224528</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.742213208069557e-07</v>
+        <v>1.187459433702585e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.59309895833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3791379.641067986</v>
+        <v>4014966.87373014</v>
       </c>
     </row>
     <row r="3">
@@ -17328,28 +17328,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2126.432217265031</v>
+        <v>2275.652524259991</v>
       </c>
       <c r="AB3" t="n">
-        <v>2909.478371230553</v>
+        <v>3113.648178396565</v>
       </c>
       <c r="AC3" t="n">
-        <v>2631.801838958849</v>
+        <v>2816.485966282943</v>
       </c>
       <c r="AD3" t="n">
-        <v>2126432.217265031</v>
+        <v>2275652.524259991</v>
       </c>
       <c r="AE3" t="n">
-        <v>2909478.371230553</v>
+        <v>3113648.178396564</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.44974242245202e-07</v>
+        <v>1.449351171820552e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>37</v>
+        <v>36.533203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>2631801.838958849</v>
+        <v>2816485.966282943</v>
       </c>
     </row>
     <row r="4">
@@ -17434,28 +17434,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1842.797452278342</v>
+        <v>1983.988975080626</v>
       </c>
       <c r="AB4" t="n">
-        <v>2521.396772693063</v>
+        <v>2714.581243121517</v>
       </c>
       <c r="AC4" t="n">
-        <v>2280.758203509832</v>
+        <v>2455.505419216703</v>
       </c>
       <c r="AD4" t="n">
-        <v>1842797.452278342</v>
+        <v>1983988.975080626</v>
       </c>
       <c r="AE4" t="n">
-        <v>2521396.772693063</v>
+        <v>2714581.243121517</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.005215024466894e-06</v>
+        <v>1.541745275703164e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>35</v>
+        <v>34.34244791666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>2280758.203509832</v>
+        <v>2455505.419216703</v>
       </c>
     </row>
     <row r="5">
@@ -17540,28 +17540,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1731.080141482723</v>
+        <v>1872.356915631028</v>
       </c>
       <c r="AB5" t="n">
-        <v>2368.540219442589</v>
+        <v>2561.841334523693</v>
       </c>
       <c r="AC5" t="n">
-        <v>2142.490065166064</v>
+        <v>2317.342793123647</v>
       </c>
       <c r="AD5" t="n">
-        <v>1731080.141482723</v>
+        <v>1872356.915631027</v>
       </c>
       <c r="AE5" t="n">
-        <v>2368540.219442589</v>
+        <v>2561841.334523693</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.02547204806609e-06</v>
+        <v>1.572814419790451e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>34</v>
+        <v>33.66536458333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>2142490.065166064</v>
+        <v>2317342.793123647</v>
       </c>
     </row>
     <row r="6">
@@ -17646,28 +17646,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1740.462957828865</v>
+        <v>1874.052221694232</v>
       </c>
       <c r="AB6" t="n">
-        <v>2381.378202708023</v>
+        <v>2564.160927070995</v>
       </c>
       <c r="AC6" t="n">
-        <v>2154.102809326868</v>
+        <v>2319.441007013803</v>
       </c>
       <c r="AD6" t="n">
-        <v>1740462.957828865</v>
+        <v>1874052.221694232</v>
       </c>
       <c r="AE6" t="n">
-        <v>2381378.202708023</v>
+        <v>2564160.927070995</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.026002336641985e-06</v>
+        <v>1.573627748169699e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>34</v>
+        <v>33.64908854166666</v>
       </c>
       <c r="AH6" t="n">
-        <v>2154102.809326868</v>
+        <v>2319441.007013803</v>
       </c>
     </row>
   </sheetData>
@@ -32572,28 +32572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2351.05513818872</v>
+        <v>2511.918007880048</v>
       </c>
       <c r="AB2" t="n">
-        <v>3216.817361302411</v>
+        <v>3436.917036383044</v>
       </c>
       <c r="AC2" t="n">
-        <v>2909.808827171109</v>
+        <v>3108.902498173873</v>
       </c>
       <c r="AD2" t="n">
-        <v>2351055.13818872</v>
+        <v>2511918.007880048</v>
       </c>
       <c r="AE2" t="n">
-        <v>3216817.361302411</v>
+        <v>3436917.036383044</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.683690818661088e-07</v>
+        <v>1.356809561518222e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.12955729166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2909808.827171109</v>
+        <v>3108902.498173872</v>
       </c>
     </row>
     <row r="3">
@@ -32678,28 +32678,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1706.276143799233</v>
+        <v>1844.134233220286</v>
       </c>
       <c r="AB3" t="n">
-        <v>2334.60229553689</v>
+        <v>2523.225815352443</v>
       </c>
       <c r="AC3" t="n">
-        <v>2111.791129085749</v>
+        <v>2282.412684904879</v>
       </c>
       <c r="AD3" t="n">
-        <v>1706276.143799233</v>
+        <v>1844134.233220286</v>
       </c>
       <c r="AE3" t="n">
-        <v>2334602.29553689</v>
+        <v>2523225.815352443</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.017686873454204e-06</v>
+        <v>1.590115665526599e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>35.09440104166666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2111791.129085749</v>
+        <v>2282412.684904879</v>
       </c>
     </row>
     <row r="4">
@@ -32784,28 +32784,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1599.727199275031</v>
+        <v>1730.002369460564</v>
       </c>
       <c r="AB4" t="n">
-        <v>2188.817329031197</v>
+        <v>2367.065564213925</v>
       </c>
       <c r="AC4" t="n">
-        <v>1979.919675172874</v>
+        <v>2141.156148962732</v>
       </c>
       <c r="AD4" t="n">
-        <v>1599727.199275031</v>
+        <v>1730002.369460564</v>
       </c>
       <c r="AE4" t="n">
-        <v>2188817.329031196</v>
+        <v>2367065.564213926</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.042810881002825e-06</v>
+        <v>1.629371431741087e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>35</v>
+        <v>34.248046875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1979919.675172874</v>
+        <v>2141156.148962732</v>
       </c>
     </row>
   </sheetData>
@@ -33081,28 +33081,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1343.187930513998</v>
+        <v>1481.645956683556</v>
       </c>
       <c r="AB2" t="n">
-        <v>1837.808983798579</v>
+        <v>2027.253363540777</v>
       </c>
       <c r="AC2" t="n">
-        <v>1662.411073765951</v>
+        <v>1833.775147792411</v>
       </c>
       <c r="AD2" t="n">
-        <v>1343187.930513998</v>
+        <v>1481645.956683556</v>
       </c>
       <c r="AE2" t="n">
-        <v>1837808.983798579</v>
+        <v>2027253.363540777</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.042478412786345e-06</v>
+        <v>1.698902188585316e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.77083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1662411.073765951</v>
+        <v>1833775.147792411</v>
       </c>
     </row>
     <row r="3">
@@ -33187,28 +33187,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1355.880713405679</v>
+        <v>1494.338739575237</v>
       </c>
       <c r="AB3" t="n">
-        <v>1855.175809317037</v>
+        <v>2044.620189059235</v>
       </c>
       <c r="AC3" t="n">
-        <v>1678.12043383142</v>
+        <v>1849.484507857879</v>
       </c>
       <c r="AD3" t="n">
-        <v>1355880.713405679</v>
+        <v>1494338.739575237</v>
       </c>
       <c r="AE3" t="n">
-        <v>1855175.809317037</v>
+        <v>2044620.189059235</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.044126972345705e-06</v>
+        <v>1.701588806753191e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>37</v>
+        <v>36.71223958333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1678120.43383142</v>
+        <v>1849484.507857879</v>
       </c>
     </row>
   </sheetData>
@@ -33484,28 +33484,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5706.390013382538</v>
+        <v>5946.752753864789</v>
       </c>
       <c r="AB2" t="n">
-        <v>7807.734564470332</v>
+        <v>8136.60947005388</v>
       </c>
       <c r="AC2" t="n">
-        <v>7062.575335861274</v>
+        <v>7360.062882034744</v>
       </c>
       <c r="AD2" t="n">
-        <v>5706390.013382538</v>
+        <v>5946752.753864789</v>
       </c>
       <c r="AE2" t="n">
-        <v>7807734.564470332</v>
+        <v>8136609.47005388</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.683086335961213e-07</v>
+        <v>8.396082664591225e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>57</v>
+        <v>56.40950520833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>7062575.335861274</v>
+        <v>7360062.882034744</v>
       </c>
     </row>
     <row r="3">
@@ -33590,28 +33590,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3318.914346262639</v>
+        <v>3493.070113831713</v>
       </c>
       <c r="AB3" t="n">
-        <v>4541.085028723943</v>
+        <v>4779.372633122174</v>
       </c>
       <c r="AC3" t="n">
-        <v>4107.690247035225</v>
+        <v>4323.236016908433</v>
       </c>
       <c r="AD3" t="n">
-        <v>3318914.346262639</v>
+        <v>3493070.113831713</v>
       </c>
       <c r="AE3" t="n">
-        <v>4541085.028723943</v>
+        <v>4779372.633122174</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.847602670468706e-07</v>
+        <v>1.159389754880046e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>41</v>
+        <v>40.849609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>4107690.247035225</v>
+        <v>4323236.016908433</v>
       </c>
     </row>
     <row r="4">
@@ -33696,28 +33696,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2814.153381212458</v>
+        <v>2971.629506157069</v>
       </c>
       <c r="AB4" t="n">
-        <v>3850.448807860099</v>
+        <v>4065.91458936564</v>
       </c>
       <c r="AC4" t="n">
-        <v>3482.967377776628</v>
+        <v>3677.869407503396</v>
       </c>
       <c r="AD4" t="n">
-        <v>2814153.381212458</v>
+        <v>2971629.506157069</v>
       </c>
       <c r="AE4" t="n">
-        <v>3850448.807860099</v>
+        <v>4065914.58936564</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.639354778268535e-07</v>
+        <v>1.276361691499893e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>38</v>
+        <v>37.10611979166666</v>
       </c>
       <c r="AH4" t="n">
-        <v>3482967.377776628</v>
+        <v>3677869.407503396</v>
       </c>
     </row>
     <row r="5">
@@ -33802,28 +33802,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2563.750625982615</v>
+        <v>2712.929555288005</v>
       </c>
       <c r="AB5" t="n">
-        <v>3507.836711164705</v>
+        <v>3711.949903550226</v>
       </c>
       <c r="AC5" t="n">
-        <v>3173.053698730758</v>
+        <v>3357.686614509663</v>
       </c>
       <c r="AD5" t="n">
-        <v>2563750.625982616</v>
+        <v>2712929.555288005</v>
       </c>
       <c r="AE5" t="n">
-        <v>3507836.711164705</v>
+        <v>3711949.903550226</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.061819522355758e-07</v>
+        <v>1.338775821860483e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>36</v>
+        <v>35.37434895833334</v>
       </c>
       <c r="AH5" t="n">
-        <v>3173053.698730758</v>
+        <v>3357686.614509663</v>
       </c>
     </row>
     <row r="6">
@@ -33908,28 +33908,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2412.248943846601</v>
+        <v>2561.34253229742</v>
       </c>
       <c r="AB6" t="n">
-        <v>3300.545425883701</v>
+        <v>3504.541851147024</v>
       </c>
       <c r="AC6" t="n">
-        <v>2985.546002781835</v>
+        <v>3170.0732955288</v>
       </c>
       <c r="AD6" t="n">
-        <v>2412248.943846602</v>
+        <v>2561342.53229742</v>
       </c>
       <c r="AE6" t="n">
-        <v>3300545.425883701</v>
+        <v>3504541.851147024</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.310965397073863e-07</v>
+        <v>1.375584155150061e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>35</v>
+        <v>34.42708333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>2985546.002781835</v>
+        <v>3170073.2955288</v>
       </c>
     </row>
     <row r="7">
@@ -34014,28 +34014,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2290.034911193202</v>
+        <v>2439.213750990041</v>
       </c>
       <c r="AB7" t="n">
-        <v>3133.326794704717</v>
+        <v>3337.439864620689</v>
       </c>
       <c r="AC7" t="n">
-        <v>2834.286483069756</v>
+        <v>3018.919288067434</v>
       </c>
       <c r="AD7" t="n">
-        <v>2290034.911193202</v>
+        <v>2439213.750990041</v>
       </c>
       <c r="AE7" t="n">
-        <v>3133326.794704717</v>
+        <v>3337439.864620689</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.486253799049449e-07</v>
+        <v>1.401480927187789e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>34</v>
+        <v>33.79231770833334</v>
       </c>
       <c r="AH7" t="n">
-        <v>2834286.483069756</v>
+        <v>3018919.288067434</v>
       </c>
     </row>
     <row r="8">
@@ -34120,28 +34120,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2195.170574493692</v>
+        <v>2336.05230815986</v>
       </c>
       <c r="AB8" t="n">
-        <v>3003.529224113275</v>
+        <v>3196.289827378775</v>
       </c>
       <c r="AC8" t="n">
-        <v>2716.876610443532</v>
+        <v>2891.240412274572</v>
       </c>
       <c r="AD8" t="n">
-        <v>2195170.574493692</v>
+        <v>2336052.30815986</v>
       </c>
       <c r="AE8" t="n">
-        <v>3003529.224113275</v>
+        <v>3196289.827378775</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.618212483682751e-07</v>
+        <v>1.420976249957763e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>34</v>
+        <v>33.330078125</v>
       </c>
       <c r="AH8" t="n">
-        <v>2716876.610443532</v>
+        <v>2891240.412274572</v>
       </c>
     </row>
     <row r="9">
@@ -34226,28 +34226,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2118.528858151874</v>
+        <v>2259.410591818045</v>
       </c>
       <c r="AB9" t="n">
-        <v>2898.664646620335</v>
+        <v>3091.425249886005</v>
       </c>
       <c r="AC9" t="n">
-        <v>2622.020161048273</v>
+        <v>2796.383962879357</v>
       </c>
       <c r="AD9" t="n">
-        <v>2118528.858151874</v>
+        <v>2259410.591818045</v>
       </c>
       <c r="AE9" t="n">
-        <v>2898664.646620335</v>
+        <v>3091425.249886005</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.701917619457609e-07</v>
+        <v>1.433342686043195e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>34</v>
+        <v>33.04036458333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>2622020.161048273</v>
+        <v>2796383.962879356</v>
       </c>
     </row>
     <row r="10">
@@ -34332,28 +34332,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2096.20314116934</v>
+        <v>2237.170126181531</v>
       </c>
       <c r="AB10" t="n">
-        <v>2868.117615703713</v>
+        <v>3060.99486362203</v>
       </c>
       <c r="AC10" t="n">
-        <v>2594.388495889305</v>
+        <v>2768.857809971101</v>
       </c>
       <c r="AD10" t="n">
-        <v>2096203.14116934</v>
+        <v>2237170.126181531</v>
       </c>
       <c r="AE10" t="n">
-        <v>2868117.615703713</v>
+        <v>3060994.86362203</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.720628179219048e-07</v>
+        <v>1.436106948226997e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>33</v>
+        <v>32.97526041666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>2594388.495889305</v>
+        <v>2768857.809971101</v>
       </c>
     </row>
     <row r="11">
@@ -34438,28 +34438,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2105.83462562228</v>
+        <v>2246.801610634472</v>
       </c>
       <c r="AB11" t="n">
-        <v>2881.295837643331</v>
+        <v>3074.173085561649</v>
       </c>
       <c r="AC11" t="n">
-        <v>2606.309006822757</v>
+        <v>2780.778320904553</v>
       </c>
       <c r="AD11" t="n">
-        <v>2105834.62562228</v>
+        <v>2246801.610634472</v>
       </c>
       <c r="AE11" t="n">
-        <v>2881295.837643331</v>
+        <v>3074173.085561649</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.721612945522284e-07</v>
+        <v>1.436252435710355e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>33</v>
+        <v>32.97200520833334</v>
       </c>
       <c r="AH11" t="n">
-        <v>2606309.006822757</v>
+        <v>2780778.320904553</v>
       </c>
     </row>
   </sheetData>
@@ -34735,28 +34735,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8269.983637994817</v>
+        <v>8559.88371372427</v>
       </c>
       <c r="AB2" t="n">
-        <v>11315.35645943373</v>
+        <v>11712.0105325355</v>
       </c>
       <c r="AC2" t="n">
-        <v>10235.43472014748</v>
+        <v>10594.23268521989</v>
       </c>
       <c r="AD2" t="n">
-        <v>8269983.637994817</v>
+        <v>8559883.71372427</v>
       </c>
       <c r="AE2" t="n">
-        <v>11315356.45943373</v>
+        <v>11712010.5325355</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.642273901728292e-07</v>
+        <v>6.741366322152111e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>67</v>
+        <v>66.54622395833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>10235434.72014748</v>
+        <v>10594232.68521989</v>
       </c>
     </row>
     <row r="3">
@@ -34841,28 +34841,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4195.880686332845</v>
+        <v>4383.43305748237</v>
       </c>
       <c r="AB3" t="n">
-        <v>5740.989064232455</v>
+        <v>5997.606492665901</v>
       </c>
       <c r="AC3" t="n">
-        <v>5193.077125470651</v>
+        <v>5425.203346699221</v>
       </c>
       <c r="AD3" t="n">
-        <v>4195880.686332844</v>
+        <v>4383433.05748237</v>
       </c>
       <c r="AE3" t="n">
-        <v>5740989.064232456</v>
+        <v>5997606.492665901</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.009909507781458e-07</v>
+        <v>1.017957338956207e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.06901041666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>5193077.12547065</v>
+        <v>5425203.346699221</v>
       </c>
     </row>
     <row r="4">
@@ -34947,28 +34947,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3442.992212725615</v>
+        <v>3613.401277339157</v>
       </c>
       <c r="AB4" t="n">
-        <v>4710.853839547734</v>
+        <v>4944.015039669337</v>
       </c>
       <c r="AC4" t="n">
-        <v>4261.25656082601</v>
+        <v>4472.165183251798</v>
       </c>
       <c r="AD4" t="n">
-        <v>3442992.212725615</v>
+        <v>3613401.277339157</v>
       </c>
       <c r="AE4" t="n">
-        <v>4710853.839547734</v>
+        <v>4944015.039669337</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.912362999307133e-07</v>
+        <v>1.149008838800169e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>40</v>
+        <v>39.03971354166666</v>
       </c>
       <c r="AH4" t="n">
-        <v>4261256.56082601</v>
+        <v>4472165.183251798</v>
       </c>
     </row>
     <row r="5">
@@ -35053,28 +35053,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3109.153412799359</v>
+        <v>3271.118745918213</v>
       </c>
       <c r="AB5" t="n">
-        <v>4254.080865560196</v>
+        <v>4475.688979739626</v>
       </c>
       <c r="AC5" t="n">
-        <v>3848.077358390964</v>
+        <v>4048.535505182042</v>
       </c>
       <c r="AD5" t="n">
-        <v>3109153.412799359</v>
+        <v>3271118.745918213</v>
       </c>
       <c r="AE5" t="n">
-        <v>4254080.865560196</v>
+        <v>4475688.979739626</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.386839072664482e-07</v>
+        <v>1.217910784038846e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>37</v>
+        <v>36.83268229166666</v>
       </c>
       <c r="AH5" t="n">
-        <v>3848077.358390965</v>
+        <v>4048535.505182042</v>
       </c>
     </row>
     <row r="6">
@@ -35159,28 +35159,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2919.056157105918</v>
+        <v>3072.577848238639</v>
       </c>
       <c r="AB6" t="n">
-        <v>3993.981413821385</v>
+        <v>4204.03656452819</v>
       </c>
       <c r="AC6" t="n">
-        <v>3612.801433274242</v>
+        <v>3802.809215211837</v>
       </c>
       <c r="AD6" t="n">
-        <v>2919056.157105918</v>
+        <v>3072577.848238639</v>
       </c>
       <c r="AE6" t="n">
-        <v>3993981.413821385</v>
+        <v>4204036.56452819</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.682912142439467e-07</v>
+        <v>1.26090559786778e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>36</v>
+        <v>35.576171875</v>
       </c>
       <c r="AH6" t="n">
-        <v>3612801.433274242</v>
+        <v>3802809.215211837</v>
       </c>
     </row>
     <row r="7">
@@ -35265,28 +35265,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2784.60155994232</v>
+        <v>2938.037910220469</v>
       </c>
       <c r="AB7" t="n">
-        <v>3810.014702263952</v>
+        <v>4019.95308584856</v>
       </c>
       <c r="AC7" t="n">
-        <v>3446.392246468957</v>
+        <v>3636.294405374613</v>
       </c>
       <c r="AD7" t="n">
-        <v>2784601.55994232</v>
+        <v>2938037.910220469</v>
       </c>
       <c r="AE7" t="n">
-        <v>3810014.702263952</v>
+        <v>4019953.08584856</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.884089997542983e-07</v>
+        <v>1.290120022648979e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>35</v>
+        <v>34.77213541666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>3446392.246468957</v>
+        <v>3636294.405374613</v>
       </c>
     </row>
     <row r="8">
@@ -35371,28 +35371,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2683.165315994584</v>
+        <v>2828.072772940576</v>
       </c>
       <c r="AB8" t="n">
-        <v>3671.225158243401</v>
+        <v>3869.493933702734</v>
       </c>
       <c r="AC8" t="n">
-        <v>3320.848581737383</v>
+        <v>3500.194863538844</v>
       </c>
       <c r="AD8" t="n">
-        <v>2683165.315994584</v>
+        <v>2828072.772940576</v>
       </c>
       <c r="AE8" t="n">
-        <v>3671225.158243401</v>
+        <v>3869493.933702734</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.034973388870618e-07</v>
+        <v>1.312030841234878e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>35</v>
+        <v>34.189453125</v>
       </c>
       <c r="AH8" t="n">
-        <v>3320848.581737383</v>
+        <v>3500194.863538845</v>
       </c>
     </row>
     <row r="9">
@@ -35477,28 +35477,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2592.558510863648</v>
+        <v>2745.909520287225</v>
       </c>
       <c r="AB9" t="n">
-        <v>3547.25293017312</v>
+        <v>3757.074546635529</v>
       </c>
       <c r="AC9" t="n">
-        <v>3208.708089118019</v>
+        <v>3398.504624991737</v>
       </c>
       <c r="AD9" t="n">
-        <v>2592558.510863648</v>
+        <v>2745909.520287225</v>
       </c>
       <c r="AE9" t="n">
-        <v>3547252.93017312</v>
+        <v>3757074.546635529</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.150745550769812e-07</v>
+        <v>1.328842915873115e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>34</v>
+        <v>33.75651041666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>3208708.089118019</v>
+        <v>3398504.624991737</v>
       </c>
     </row>
     <row r="10">
@@ -35583,28 +35583,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2521.944704465086</v>
+        <v>2666.766820556507</v>
       </c>
       <c r="AB10" t="n">
-        <v>3450.636004997328</v>
+        <v>3648.788013334463</v>
       </c>
       <c r="AC10" t="n">
-        <v>3121.312147678302</v>
+        <v>3300.552806447824</v>
       </c>
       <c r="AD10" t="n">
-        <v>2521944.704465086</v>
+        <v>2666766.820556507</v>
       </c>
       <c r="AE10" t="n">
-        <v>3450636.004997328</v>
+        <v>3648788.013334463</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.238049148267563e-07</v>
+        <v>1.341520873797032e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>34</v>
+        <v>33.4375</v>
       </c>
       <c r="AH10" t="n">
-        <v>3121312.147678302</v>
+        <v>3300552.806447824</v>
       </c>
     </row>
     <row r="11">
@@ -35689,28 +35689,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2452.379456775574</v>
+        <v>2597.201572866994</v>
       </c>
       <c r="AB11" t="n">
-        <v>3355.453764106402</v>
+        <v>3553.605772443538</v>
       </c>
       <c r="AC11" t="n">
-        <v>3035.213966268896</v>
+        <v>3214.454625038418</v>
       </c>
       <c r="AD11" t="n">
-        <v>2452379.456775574</v>
+        <v>2597201.572866994</v>
       </c>
       <c r="AE11" t="n">
-        <v>3355453.764106402</v>
+        <v>3553605.772443538</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.31396532000474e-07</v>
+        <v>1.35254518503522e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>34</v>
+        <v>33.16731770833334</v>
       </c>
       <c r="AH11" t="n">
-        <v>3035213.966268896</v>
+        <v>3214454.625038418</v>
       </c>
     </row>
     <row r="12">
@@ -35795,28 +35795,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2380.96990781169</v>
+        <v>2525.877275249131</v>
       </c>
       <c r="AB12" t="n">
-        <v>3257.748068847053</v>
+        <v>3456.016721836837</v>
       </c>
       <c r="AC12" t="n">
-        <v>2946.833165434299</v>
+        <v>3126.179336454533</v>
       </c>
       <c r="AD12" t="n">
-        <v>2380969.90781169</v>
+        <v>2525877.275249131</v>
       </c>
       <c r="AE12" t="n">
-        <v>3257748.068847053</v>
+        <v>3456016.721836837</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.369953496660907e-07</v>
+        <v>1.360675614573384e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>33</v>
+        <v>32.96549479166666</v>
       </c>
       <c r="AH12" t="n">
-        <v>2946833.165434299</v>
+        <v>3126179.336454533</v>
       </c>
     </row>
     <row r="13">
@@ -35901,28 +35901,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2333.146188988732</v>
+        <v>2478.053556426173</v>
       </c>
       <c r="AB13" t="n">
-        <v>3192.313546919908</v>
+        <v>3390.582199909692</v>
       </c>
       <c r="AC13" t="n">
-        <v>2887.643622441954</v>
+        <v>3066.989793462189</v>
       </c>
       <c r="AD13" t="n">
-        <v>2333146.188988732</v>
+        <v>2478053.556426173</v>
       </c>
       <c r="AE13" t="n">
-        <v>3192313.546919908</v>
+        <v>3390582.199909692</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.410758438969639e-07</v>
+        <v>1.36660118186391e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>33</v>
+        <v>32.82552083333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>2887643.622441954</v>
+        <v>3066989.793462188</v>
       </c>
     </row>
     <row r="14">
@@ -36007,28 +36007,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2326.580568781711</v>
+        <v>2471.487936219153</v>
       </c>
       <c r="AB14" t="n">
-        <v>3183.330175697941</v>
+        <v>3381.598828687726</v>
       </c>
       <c r="AC14" t="n">
-        <v>2879.517611561171</v>
+        <v>3058.863782581406</v>
       </c>
       <c r="AD14" t="n">
-        <v>2326580.568781712</v>
+        <v>2471487.936219153</v>
       </c>
       <c r="AE14" t="n">
-        <v>3183330.175697941</v>
+        <v>3381598.828687726</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.422145864730215e-07</v>
+        <v>1.368254828549638e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>33</v>
+        <v>32.783203125</v>
       </c>
       <c r="AH14" t="n">
-        <v>2879517.611561171</v>
+        <v>3058863.782581406</v>
       </c>
     </row>
     <row r="15">
@@ -36113,28 +36113,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2336.303607744365</v>
+        <v>2481.210975181806</v>
       </c>
       <c r="AB15" t="n">
-        <v>3196.63366655685</v>
+        <v>3394.902319546634</v>
       </c>
       <c r="AC15" t="n">
-        <v>2891.551435924072</v>
+        <v>3070.897606944307</v>
       </c>
       <c r="AD15" t="n">
-        <v>2336303.607744365</v>
+        <v>2481210.975181806</v>
       </c>
       <c r="AE15" t="n">
-        <v>3196633.66655685</v>
+        <v>3394902.319546634</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.4211969125835e-07</v>
+        <v>1.368117024659161e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>33</v>
+        <v>32.78645833333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>2891551.435924072</v>
+        <v>3070897.606944307</v>
       </c>
     </row>
   </sheetData>
@@ -36410,28 +36410,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1241.849785191874</v>
+        <v>1383.992472396504</v>
       </c>
       <c r="AB2" t="n">
-        <v>1699.153662645404</v>
+        <v>1893.639558171561</v>
       </c>
       <c r="AC2" t="n">
-        <v>1536.98882185967</v>
+        <v>1712.913256479479</v>
       </c>
       <c r="AD2" t="n">
-        <v>1241849.785191874</v>
+        <v>1383992.472396504</v>
       </c>
       <c r="AE2" t="n">
-        <v>1699153.662645404</v>
+        <v>1893639.558171561</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.00535235780431e-06</v>
+        <v>1.675862482529637e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.482421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1536988.82185967</v>
+        <v>1712913.256479479</v>
       </c>
     </row>
   </sheetData>
@@ -36707,28 +36707,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3442.600759785478</v>
+        <v>3632.965810149895</v>
       </c>
       <c r="AB2" t="n">
-        <v>4710.318236365354</v>
+        <v>4970.784096587263</v>
       </c>
       <c r="AC2" t="n">
-        <v>4260.772074859632</v>
+        <v>4496.379438948084</v>
       </c>
       <c r="AD2" t="n">
-        <v>3442600.759785478</v>
+        <v>3632965.810149895</v>
       </c>
       <c r="AE2" t="n">
-        <v>4710318.236365354</v>
+        <v>4970784.096587263</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.335685809752506e-07</v>
+        <v>1.11642288087333e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.37369791666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>4260772.074859632</v>
+        <v>4496379.438948084</v>
       </c>
     </row>
     <row r="3">
@@ -36813,28 +36813,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2330.735391686675</v>
+        <v>2481.473078026584</v>
       </c>
       <c r="AB3" t="n">
-        <v>3189.014987694363</v>
+        <v>3395.260940222021</v>
       </c>
       <c r="AC3" t="n">
-        <v>2884.659873079338</v>
+        <v>3071.222001365761</v>
       </c>
       <c r="AD3" t="n">
-        <v>2330735.391686675</v>
+        <v>2481473.078026584</v>
       </c>
       <c r="AE3" t="n">
-        <v>3189014.987694363</v>
+        <v>3395260.940222021</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.135379635709739e-07</v>
+        <v>1.390319475952953e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>38</v>
+        <v>37.24283854166666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2884659.873079338</v>
+        <v>3071222.001365761</v>
       </c>
     </row>
     <row r="4">
@@ -36919,28 +36919,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2013.184381074141</v>
+        <v>2156.064777784255</v>
       </c>
       <c r="AB4" t="n">
-        <v>2754.527685612254</v>
+        <v>2950.02294782926</v>
       </c>
       <c r="AC4" t="n">
-        <v>2491.639429301307</v>
+        <v>2668.476898071647</v>
       </c>
       <c r="AD4" t="n">
-        <v>2013184.381074141</v>
+        <v>2156064.777784255</v>
       </c>
       <c r="AE4" t="n">
-        <v>2754527.685612254</v>
+        <v>2950022.94782926</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.77290183886532e-07</v>
+        <v>1.48734440220067e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>35</v>
+        <v>34.81119791666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>2491639.429301307</v>
+        <v>2668476.898071647</v>
       </c>
     </row>
     <row r="5">
@@ -37025,28 +37025,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1835.009756119754</v>
+        <v>1977.804811975296</v>
       </c>
       <c r="AB5" t="n">
-        <v>2510.741303239975</v>
+        <v>2706.119798334784</v>
       </c>
       <c r="AC5" t="n">
-        <v>2271.119677106303</v>
+        <v>2447.851522844703</v>
       </c>
       <c r="AD5" t="n">
-        <v>1835009.756119754</v>
+        <v>1977804.811975296</v>
       </c>
       <c r="AE5" t="n">
-        <v>2510741.303239976</v>
+        <v>2706119.798334784</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.01021141241014e-06</v>
+        <v>1.537447437885967e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>34</v>
+        <v>33.67513020833334</v>
       </c>
       <c r="AH5" t="n">
-        <v>2271119.677106303</v>
+        <v>2447851.522844703</v>
       </c>
     </row>
     <row r="6">
@@ -37131,28 +37131,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1799.260606443378</v>
+        <v>1934.113210831656</v>
       </c>
       <c r="AB6" t="n">
-        <v>2461.827739511584</v>
+        <v>2646.339022112652</v>
       </c>
       <c r="AC6" t="n">
-        <v>2226.874355249531</v>
+        <v>2393.776140002364</v>
       </c>
       <c r="AD6" t="n">
-        <v>1799260.606443378</v>
+        <v>1934113.210831656</v>
       </c>
       <c r="AE6" t="n">
-        <v>2461827.739511584</v>
+        <v>2646339.022112652</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.016586634441696e-06</v>
+        <v>1.547149930510739e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>34</v>
+        <v>33.46354166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>2226874.355249531</v>
+        <v>2393776.140002364</v>
       </c>
     </row>
     <row r="7">
@@ -37237,28 +37237,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1810.351794819497</v>
+        <v>1945.204399207774</v>
       </c>
       <c r="AB7" t="n">
-        <v>2477.003192756487</v>
+        <v>2661.514475357555</v>
       </c>
       <c r="AC7" t="n">
-        <v>2240.601484535623</v>
+        <v>2407.503269288457</v>
       </c>
       <c r="AD7" t="n">
-        <v>1810351.794819497</v>
+        <v>1945204.399207775</v>
       </c>
       <c r="AE7" t="n">
-        <v>2477003.192756488</v>
+        <v>2661514.475357555</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.016586634441696e-06</v>
+        <v>1.547149930510739e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>34</v>
+        <v>33.466796875</v>
       </c>
       <c r="AH7" t="n">
-        <v>2240601.484535623</v>
+        <v>2407503.269288457</v>
       </c>
     </row>
   </sheetData>
@@ -37534,28 +37534,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4708.026933719652</v>
+        <v>4920.263432352443</v>
       </c>
       <c r="AB2" t="n">
-        <v>6441.730154204936</v>
+        <v>6732.121494847833</v>
       </c>
       <c r="AC2" t="n">
-        <v>5826.94046931243</v>
+        <v>6089.617267971164</v>
       </c>
       <c r="AD2" t="n">
-        <v>4708026.933719653</v>
+        <v>4920263.432352443</v>
       </c>
       <c r="AE2" t="n">
-        <v>6441730.154204937</v>
+        <v>6732121.494847833</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.285887394160762e-07</v>
+        <v>9.384268512156612e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.10611979166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>5826940.469312429</v>
+        <v>6089617.267971164</v>
       </c>
     </row>
     <row r="3">
@@ -37640,28 +37640,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2920.452239796494</v>
+        <v>3083.606070656526</v>
       </c>
       <c r="AB3" t="n">
-        <v>3995.891595749452</v>
+        <v>4219.12586497118</v>
       </c>
       <c r="AC3" t="n">
-        <v>3614.529310120051</v>
+        <v>3816.458413998513</v>
       </c>
       <c r="AD3" t="n">
-        <v>2920452.239796494</v>
+        <v>3083606.070656526</v>
       </c>
       <c r="AE3" t="n">
-        <v>3995891.595749452</v>
+        <v>4219125.86497118</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.319468060656501e-07</v>
+        <v>1.242022283632317e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>40</v>
+        <v>39.36848958333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>3614529.310120051</v>
+        <v>3816458.413998513</v>
       </c>
     </row>
     <row r="4">
@@ -37746,28 +37746,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2504.103837005437</v>
+        <v>2651.010566413977</v>
       </c>
       <c r="AB4" t="n">
-        <v>3426.225343055512</v>
+        <v>3627.229611299779</v>
       </c>
       <c r="AC4" t="n">
-        <v>3099.231205051635</v>
+        <v>3281.051908045924</v>
       </c>
       <c r="AD4" t="n">
-        <v>2504103.837005437</v>
+        <v>2651010.566413977</v>
       </c>
       <c r="AE4" t="n">
-        <v>3426225.343055511</v>
+        <v>3627229.611299779</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.05099361461118e-07</v>
+        <v>1.3512325158772e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>37</v>
+        <v>36.19140625</v>
       </c>
       <c r="AH4" t="n">
-        <v>3099231.205051635</v>
+        <v>3281051.908045924</v>
       </c>
     </row>
     <row r="5">
@@ -37852,28 +37852,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2286.012751087002</v>
+        <v>2432.919390986991</v>
       </c>
       <c r="AB5" t="n">
-        <v>3127.823497802232</v>
+        <v>3328.827643576951</v>
       </c>
       <c r="AC5" t="n">
-        <v>2829.308413099719</v>
+        <v>3011.129005312783</v>
       </c>
       <c r="AD5" t="n">
-        <v>2286012.751087002</v>
+        <v>2432919.390986992</v>
       </c>
       <c r="AE5" t="n">
-        <v>3127823.497802232</v>
+        <v>3328827.643576951</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.435371553552979e-07</v>
+        <v>1.40861670943641e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>35</v>
+        <v>34.71354166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>2829308.413099719</v>
+        <v>3011129.005312783</v>
       </c>
     </row>
     <row r="6">
@@ -37958,28 +37958,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2138.498600377776</v>
+        <v>2285.319899423196</v>
       </c>
       <c r="AB6" t="n">
-        <v>2925.988128936662</v>
+        <v>3126.875507589356</v>
       </c>
       <c r="AC6" t="n">
-        <v>2646.735928561078</v>
+        <v>2828.450897742248</v>
       </c>
       <c r="AD6" t="n">
-        <v>2138498.600377776</v>
+        <v>2285319.899423196</v>
       </c>
       <c r="AE6" t="n">
-        <v>2925988.128936662</v>
+        <v>3126875.507589356</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.676865546605417e-07</v>
+        <v>1.444669605913401e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>34</v>
+        <v>33.84765625</v>
       </c>
       <c r="AH6" t="n">
-        <v>2646735.928561078</v>
+        <v>2828450.897742248</v>
       </c>
     </row>
     <row r="7">
@@ -38064,28 +38064,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2027.443686854543</v>
+        <v>2166.098854255481</v>
       </c>
       <c r="AB7" t="n">
-        <v>2774.037896857173</v>
+        <v>2963.752013929403</v>
       </c>
       <c r="AC7" t="n">
-        <v>2509.287613367765</v>
+        <v>2680.895681372057</v>
       </c>
       <c r="AD7" t="n">
-        <v>2027443.686854543</v>
+        <v>2166098.854255481</v>
       </c>
       <c r="AE7" t="n">
-        <v>2774037.896857173</v>
+        <v>2963752.013929403</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.836855317002658e-07</v>
+        <v>1.468554649829407e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>34</v>
+        <v>33.29752604166666</v>
       </c>
       <c r="AH7" t="n">
-        <v>2509287.613367765</v>
+        <v>2680895.681372057</v>
       </c>
     </row>
     <row r="8">
@@ -38170,28 +38170,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1984.430327852708</v>
+        <v>2123.085495253645</v>
       </c>
       <c r="AB8" t="n">
-        <v>2715.185121455389</v>
+        <v>2904.89923852762</v>
       </c>
       <c r="AC8" t="n">
-        <v>2456.051664249939</v>
+        <v>2627.659732254231</v>
       </c>
       <c r="AD8" t="n">
-        <v>1984430.327852708</v>
+        <v>2123085.495253645</v>
       </c>
       <c r="AE8" t="n">
-        <v>2715185.12145539</v>
+        <v>2904899.23852762</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.894210140352611e-07</v>
+        <v>1.477117212742692e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>34</v>
+        <v>33.10546875</v>
       </c>
       <c r="AH8" t="n">
-        <v>2456051.664249939</v>
+        <v>2627659.732254231</v>
       </c>
     </row>
     <row r="9">
@@ -38276,28 +38276,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1994.045588661821</v>
+        <v>2132.700756062759</v>
       </c>
       <c r="AB9" t="n">
-        <v>2728.341145489787</v>
+        <v>2918.055262562017</v>
       </c>
       <c r="AC9" t="n">
-        <v>2467.952095815089</v>
+        <v>2639.560163819382</v>
       </c>
       <c r="AD9" t="n">
-        <v>1994045.588661821</v>
+        <v>2132700.756062759</v>
       </c>
       <c r="AE9" t="n">
-        <v>2728341.145489787</v>
+        <v>2918055.262562017</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.895216365323663e-07</v>
+        <v>1.47726743314468e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>34</v>
+        <v>33.09895833333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>2467952.095815089</v>
+        <v>2639560.163819382</v>
       </c>
     </row>
   </sheetData>
